--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_2.5E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_2.5E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4622 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>93.59999999999999</v>
+        <v>110.7</v>
       </c>
       <c r="B2">
-        <v>38146.46345810284</v>
+        <v>43389.33601010396</v>
       </c>
       <c r="C2">
-        <v>3651.578989560528</v>
+        <v>4901.381305982701</v>
       </c>
       <c r="D2">
-        <v>4232.735958469734</v>
+        <v>62513.05315072868</v>
       </c>
       <c r="E2">
-        <v>358.4696730556236</v>
+        <v>1406.808428267658</v>
       </c>
       <c r="F2">
-        <v>312.3582497997552</v>
+        <v>223.4024455190573</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>93.59999999999999</v>
+        <v>113.4</v>
       </c>
       <c r="B3">
-        <v>14976.46345810284</v>
+        <v>41316.77388722669</v>
       </c>
       <c r="C3">
-        <v>2851.578989560528</v>
+        <v>4477.074903325901</v>
       </c>
       <c r="D3">
-        <v>5182.735958469734</v>
+        <v>55752.53370747992</v>
       </c>
       <c r="E3">
-        <v>288.4696730556236</v>
+        <v>3519.707374734202</v>
       </c>
       <c r="F3">
-        <v>22.35824979975524</v>
+        <v>255.4192248793014</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>93.7</v>
+        <v>116</v>
       </c>
       <c r="B4">
-        <v>18672.9269162058</v>
+        <v>41469.86221334491</v>
       </c>
       <c r="C4">
-        <v>5771.333263505138</v>
+        <v>2750.33540447121</v>
       </c>
       <c r="D4">
-        <v>6219.467425798473</v>
+        <v>49837.21868805516</v>
       </c>
       <c r="E4">
-        <v>1791.82782875966</v>
+        <v>8.054508368650886</v>
       </c>
       <c r="F4">
-        <v>592.3679663072922</v>
+        <v>667.3613087076856</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>93.59999999999999</v>
+        <v>118.7</v>
       </c>
       <c r="B5">
-        <v>17716.46345810284</v>
+        <v>29497.30009046764</v>
       </c>
       <c r="C5">
-        <v>6061.578989560528</v>
+        <v>2576.02900181444</v>
       </c>
       <c r="D5">
-        <v>5942.735958469734</v>
+        <v>44626.6992448064</v>
       </c>
       <c r="E5">
-        <v>1278.469673055624</v>
+        <v>820.9534548351944</v>
       </c>
       <c r="F5">
-        <v>212.3582497997552</v>
+        <v>419.3780880679296</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>93.59999999999999</v>
+        <v>121.3</v>
       </c>
       <c r="B6">
-        <v>15906.46345810284</v>
+        <v>27340.38841658586</v>
       </c>
       <c r="C6">
-        <v>7751.578989560528</v>
+        <v>2629.289502959749</v>
       </c>
       <c r="D6">
-        <v>5862.735958469734</v>
+        <v>38541.38422538168</v>
       </c>
       <c r="E6">
-        <v>1948.469673055623</v>
+        <v>379.3005884696433</v>
       </c>
       <c r="F6">
-        <v>692.3582497997553</v>
+        <v>461.3201718963128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>93.7</v>
+        <v>123.5</v>
       </c>
       <c r="B7">
-        <v>7402.926916205804</v>
+        <v>19326.07853868588</v>
       </c>
       <c r="C7">
-        <v>6781.333263505138</v>
+        <v>3252.817619313465</v>
       </c>
       <c r="D7">
-        <v>5759.467425798473</v>
+        <v>36186.88690125303</v>
       </c>
       <c r="E7">
-        <v>2291.82782875966</v>
+        <v>379.4404707757133</v>
       </c>
       <c r="F7">
-        <v>752.3679663072924</v>
+        <v>272.9634735972537</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>93.59999999999999</v>
+        <v>125.3</v>
       </c>
       <c r="B8">
-        <v>16586.46345810284</v>
+        <v>16664.3704567677</v>
       </c>
       <c r="C8">
-        <v>8401.578989560528</v>
+        <v>2416.613350875589</v>
       </c>
       <c r="D8">
-        <v>6982.735958469734</v>
+        <v>34783.20727242054</v>
       </c>
       <c r="E8">
-        <v>1518.469673055624</v>
+        <v>151.3731017534114</v>
       </c>
       <c r="F8">
-        <v>622.3582497997552</v>
+        <v>294.3079931707495</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>93.59999999999999</v>
+        <v>127.8</v>
       </c>
       <c r="B9">
-        <v>13806.46345810284</v>
+        <v>15073.1092318814</v>
       </c>
       <c r="C9">
-        <v>8441.578989560528</v>
+        <v>2727.440755823008</v>
       </c>
       <c r="D9">
-        <v>6782.735958469734</v>
+        <v>34783.09667681983</v>
       </c>
       <c r="E9">
-        <v>2408.469673055623</v>
+        <v>145.1684225557656</v>
       </c>
       <c r="F9">
-        <v>782.3582497997553</v>
+        <v>426.1753814672718</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>93.5</v>
+        <v>129.9</v>
       </c>
       <c r="B10">
-        <v>8730</v>
+        <v>15454.44980297678</v>
       </c>
       <c r="C10">
-        <v>8341.824715615889</v>
+        <v>3358.535775978833</v>
       </c>
       <c r="D10">
-        <v>5676.004491140979</v>
+        <v>31323.80377651522</v>
       </c>
       <c r="E10">
-        <v>2795.111517351594</v>
+        <v>490.7564920297405</v>
       </c>
       <c r="F10">
-        <v>742.3485332922172</v>
+        <v>367.743987636351</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>93.5</v>
+        <v>132.3</v>
       </c>
       <c r="B11">
+        <v>16148.83902708595</v>
+      </c>
+      <c r="C11">
+        <v>2476.93008472836</v>
+      </c>
+      <c r="D11">
+        <v>29008.89760473854</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>10951.82471561589</v>
-      </c>
-      <c r="D11">
-        <v>7686.004491140979</v>
-      </c>
-      <c r="E11">
-        <v>2555.111517351594</v>
-      </c>
       <c r="F11">
-        <v>502.3485332922172</v>
+        <v>539.5366804010134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>93.5</v>
+        <v>134.5</v>
       </c>
       <c r="B12">
-        <v>8290</v>
+        <v>21874.52914918598</v>
       </c>
       <c r="C12">
-        <v>9721.824715615889</v>
+        <v>1800.458201082077</v>
       </c>
       <c r="D12">
-        <v>9216.004491140979</v>
+        <v>28134.40028060992</v>
       </c>
       <c r="E12">
-        <v>3405.111517351594</v>
+        <v>260.1398823060699</v>
       </c>
       <c r="F12">
-        <v>312.3485332922172</v>
+        <v>541.1799821019534</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>93.59999999999999</v>
+        <v>136.8</v>
       </c>
       <c r="B13">
-        <v>2616.463458102844</v>
+        <v>16264.56882229052</v>
       </c>
       <c r="C13">
-        <v>12081.57898956053</v>
+        <v>4696.419413633713</v>
       </c>
       <c r="D13">
-        <v>15312.73595846973</v>
+        <v>27604.69853265726</v>
       </c>
       <c r="E13">
-        <v>3108.469673055623</v>
+        <v>484.8315774442417</v>
       </c>
       <c r="F13">
-        <v>462.3582497997552</v>
+        <v>572.8979793347542</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>93.8</v>
+        <v>139.3</v>
       </c>
       <c r="B14">
-        <v>10099.39037430864</v>
+        <v>23843.30759740421</v>
       </c>
       <c r="C14">
-        <v>13591.08753744975</v>
+        <v>3227.246818581102</v>
       </c>
       <c r="D14">
-        <v>25676.19889312721</v>
+        <v>27694.58793705655</v>
       </c>
       <c r="E14">
-        <v>4275.18598446369</v>
+        <v>208.6268982465958</v>
       </c>
       <c r="F14">
-        <v>1382.37768281483</v>
+        <v>314.7653676312766</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>94.09999999999999</v>
+        <v>141.3</v>
       </c>
       <c r="B15">
-        <v>26728.78074861741</v>
+        <v>17030.29861749508</v>
       </c>
       <c r="C15">
-        <v>15850.35035928364</v>
+        <v>2955.908742539037</v>
       </c>
       <c r="D15">
-        <v>37136.39329511346</v>
+        <v>22960.49946057601</v>
       </c>
       <c r="E15">
-        <v>3775.260451575793</v>
+        <v>489.6631548884761</v>
       </c>
       <c r="F15">
-        <v>1902.406832337442</v>
+        <v>176.2592782684949</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>94.8</v>
+        <v>143.9</v>
       </c>
       <c r="B16">
-        <v>33014.02495533766</v>
+        <v>16463.38694361329</v>
       </c>
       <c r="C16">
-        <v>24398.63027689597</v>
+        <v>3329.169243684376</v>
       </c>
       <c r="D16">
-        <v>39493.51356641465</v>
+        <v>22715.18444115126</v>
       </c>
       <c r="E16">
-        <v>4628.767541504022</v>
+        <v>178.0102885229251</v>
       </c>
       <c r="F16">
-        <v>1832.474847890205</v>
+        <v>798.2013620968781</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>95.90000000000001</v>
+        <v>146.2</v>
       </c>
       <c r="B17">
-        <v>50815.12299446963</v>
+        <v>19423.42661671794</v>
       </c>
       <c r="C17">
-        <v>20825.92729028681</v>
+        <v>4245.130456235984</v>
       </c>
       <c r="D17">
-        <v>56147.55970703084</v>
+        <v>18835.4826931986</v>
       </c>
       <c r="E17">
-        <v>7135.707254248383</v>
+        <v>202.7019836610973</v>
       </c>
       <c r="F17">
-        <v>1182.581729473117</v>
+        <v>1019.91935932968</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>97.40000000000001</v>
+        <v>148.4</v>
       </c>
       <c r="B18">
-        <v>46662.07486601321</v>
+        <v>21099.11673881797</v>
       </c>
       <c r="C18">
-        <v>19272.24139945611</v>
+        <v>5628.658572589699</v>
       </c>
       <c r="D18">
-        <v>75978.53171696201</v>
+        <v>16750.98536906997</v>
       </c>
       <c r="E18">
-        <v>7936.07958980887</v>
+        <v>752.841865967167</v>
       </c>
       <c r="F18">
-        <v>1222.72747708618</v>
+        <v>1071.56266103062</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>99.5</v>
+        <v>150.8</v>
       </c>
       <c r="B19">
-        <v>58027.80748617431</v>
+        <v>14783.50596292703</v>
       </c>
       <c r="C19">
-        <v>15727.08115229314</v>
+        <v>6287.052881339227</v>
       </c>
       <c r="D19">
-        <v>90459.89253086563</v>
+        <v>14636.07919729331</v>
       </c>
       <c r="E19">
-        <v>8506.600859593564</v>
+        <v>522.0853739374263</v>
       </c>
       <c r="F19">
-        <v>502.9315237444672</v>
+        <v>1333.355353795281</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>102.3</v>
+        <v>153.3</v>
       </c>
       <c r="B20">
-        <v>65768.78431305566</v>
+        <v>8432.244738040725</v>
       </c>
       <c r="C20">
-        <v>14590.20082274254</v>
+        <v>6917.880286286645</v>
       </c>
       <c r="D20">
-        <v>99458.37361607046</v>
+        <v>13525.96860169259</v>
       </c>
       <c r="E20">
-        <v>9380.629219306478</v>
+        <v>1215.88069473978</v>
       </c>
       <c r="F20">
-        <v>703.2035859555172</v>
+        <v>1855.222742091805</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>105.1</v>
+        <v>155.6</v>
       </c>
       <c r="B21">
-        <v>65449.76113993701</v>
+        <v>11292.28441114526</v>
       </c>
       <c r="C21">
-        <v>16153.3204931919</v>
+        <v>6323.841498838253</v>
       </c>
       <c r="D21">
-        <v>102846.8547012753</v>
+        <v>11886.26685373996</v>
       </c>
       <c r="E21">
-        <v>8734.657579019393</v>
+        <v>1150.572389877952</v>
       </c>
       <c r="F21">
-        <v>463.4756481665662</v>
+        <v>2146.940739324605</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>107.9</v>
+        <v>157.9</v>
       </c>
       <c r="B22">
-        <v>61470.73796681837</v>
+        <v>15232.3240842498</v>
       </c>
       <c r="C22">
-        <v>19186.44016364129</v>
+        <v>6639.802711389889</v>
       </c>
       <c r="D22">
-        <v>103335.3357864801</v>
+        <v>11116.5651057873</v>
       </c>
       <c r="E22">
-        <v>8958.685938732307</v>
+        <v>1255.264085016117</v>
       </c>
       <c r="F22">
-        <v>703.7477103776162</v>
+        <v>1818.658736557406</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>110.7</v>
+        <v>160.2</v>
       </c>
       <c r="B23">
-        <v>63981.71479369972</v>
+        <v>7992.363757354455</v>
       </c>
       <c r="C23">
-        <v>17869.55983409068</v>
+        <v>5075.763923941498</v>
       </c>
       <c r="D23">
-        <v>100233.816871685</v>
+        <v>9096.863357834634</v>
       </c>
       <c r="E23">
-        <v>6372.714298445229</v>
+        <v>1319.955780154282</v>
       </c>
       <c r="F23">
-        <v>464.0197725886661</v>
+        <v>1620.376733790206</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>113.4</v>
+        <v>162.5</v>
       </c>
       <c r="B24">
-        <v>61696.2281624781</v>
+        <v>7792.403430458995</v>
       </c>
       <c r="C24">
-        <v>17372.92523059544</v>
+        <v>6271.725136493134</v>
       </c>
       <c r="D24">
-        <v>92985.56648956104</v>
+        <v>7127.161609882009</v>
       </c>
       <c r="E24">
-        <v>8453.384502454113</v>
+        <v>94.64747529244642</v>
       </c>
       <c r="F24">
-        <v>494.2821182921781</v>
+        <v>1092.094731023008</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>116</v>
+        <v>165.1</v>
       </c>
       <c r="B25">
-        <v>61644.27807315366</v>
+        <v>4965.491756577205</v>
       </c>
       <c r="C25">
-        <v>15576.53635315558</v>
+        <v>7914.985637638443</v>
       </c>
       <c r="D25">
-        <v>86600.58464010838</v>
+        <v>7011.846590457251</v>
       </c>
       <c r="E25">
-        <v>4910.696550758963</v>
+        <v>952.9946089268951</v>
       </c>
       <c r="F25">
-        <v>904.534747488153</v>
+        <v>994.036814851391</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>118.7</v>
+        <v>167</v>
       </c>
       <c r="B26">
-        <v>49458.79144193205</v>
+        <v>10418.13322566355</v>
       </c>
       <c r="C26">
-        <v>15329.90174966033</v>
+        <v>7301.214465398457</v>
       </c>
       <c r="D26">
-        <v>80902.33425798446</v>
+        <v>6882.962537800719</v>
       </c>
       <c r="E26">
-        <v>5691.366754767848</v>
+        <v>1489.479052736688</v>
       </c>
       <c r="F26">
-        <v>654.7970931916658</v>
+        <v>1165.456029956747</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>121.3</v>
+        <v>169.6</v>
       </c>
       <c r="B27">
-        <v>47096.8413526076</v>
+        <v>4251.221551781768</v>
       </c>
       <c r="C27">
-        <v>15313.51287222048</v>
+        <v>5094.474966543796</v>
       </c>
       <c r="D27">
-        <v>74347.35240853179</v>
+        <v>4917.647518375969</v>
       </c>
       <c r="E27">
-        <v>5218.678803072704</v>
+        <v>87.82618637113706</v>
       </c>
       <c r="F27">
-        <v>695.0497223876407</v>
+        <v>667.3981137851317</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>123.5</v>
+        <v>171.8</v>
       </c>
       <c r="B28">
-        <v>38909.03743087155</v>
+        <v>3146.91167388179</v>
       </c>
       <c r="C28">
-        <v>15878.10689900214</v>
+        <v>4578.003082897511</v>
       </c>
       <c r="D28">
-        <v>71595.44468976416</v>
+        <v>4473.150194247348</v>
       </c>
       <c r="E28">
-        <v>5192.558228561419</v>
+        <v>1297.966068677207</v>
       </c>
       <c r="F28">
-        <v>505.2634855534654</v>
+        <v>759.0414154860716</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>125.3</v>
+        <v>174.4</v>
       </c>
       <c r="B29">
-        <v>36105.37967672388</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>14993.68383000531</v>
+        <v>8661.263584042821</v>
       </c>
       <c r="D29">
-        <v>69866.61110168156</v>
+        <v>3577.835174822627</v>
       </c>
       <c r="E29">
-        <v>4943.00503123401</v>
+        <v>1666.313202311656</v>
       </c>
       <c r="F29">
-        <v>525.4383826891401</v>
+        <v>1060.983499314456</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>127.8</v>
+        <v>177</v>
       </c>
       <c r="B30">
-        <v>34316.96612929647</v>
+        <v>7053.088326118217</v>
       </c>
       <c r="C30">
-        <v>15237.54067862084</v>
+        <v>6504.524085188131</v>
       </c>
       <c r="D30">
-        <v>69414.89778490015</v>
+        <v>3862.52015539787</v>
       </c>
       <c r="E30">
-        <v>4906.958923834828</v>
+        <v>834.6603359461046</v>
       </c>
       <c r="F30">
-        <v>655.681295377577</v>
+        <v>802.9255831428391</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>129.9</v>
+        <v>179.3</v>
       </c>
       <c r="B31">
-        <v>34532.69874945746</v>
+        <v>2143.127999222765</v>
       </c>
       <c r="C31">
-        <v>15812.38043145787</v>
+        <v>9410.485297739739</v>
       </c>
       <c r="D31">
-        <v>65576.25859880376</v>
+        <v>2892.818407445244</v>
       </c>
       <c r="E31">
-        <v>5227.480193619522</v>
+        <v>799.3520310842691</v>
       </c>
       <c r="F31">
-        <v>595.8853420358647</v>
+        <v>874.6435803756397</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>132.3</v>
+        <v>181.5</v>
       </c>
       <c r="B32">
-        <v>35037.8217439272</v>
+        <v>288.8181213227799</v>
       </c>
       <c r="C32">
-        <v>14866.48300612876</v>
+        <v>10814.01341409345</v>
       </c>
       <c r="D32">
-        <v>62827.81381469363</v>
+        <v>4028.321083316594</v>
       </c>
       <c r="E32">
-        <v>4708.075930516304</v>
+        <v>1479.491913390346</v>
       </c>
       <c r="F32">
-        <v>766.1185382167645</v>
+        <v>886.2868820765798</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>134.5</v>
+        <v>183.8</v>
       </c>
       <c r="B33">
-        <v>40590.01782219115</v>
+        <v>9668.85779442732</v>
       </c>
       <c r="C33">
-        <v>14131.07703291043</v>
+        <v>8639.974626645091</v>
       </c>
       <c r="D33">
-        <v>61555.906095926</v>
+        <v>408.619335363961</v>
       </c>
       <c r="E33">
-        <v>4941.955356005026</v>
+        <v>2304.183608528511</v>
       </c>
       <c r="F33">
-        <v>766.3323013825893</v>
+        <v>918.0048793093804</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>136.8</v>
+        <v>186.1</v>
       </c>
       <c r="B34">
-        <v>34798.67735855794</v>
+        <v>5268.897467531977</v>
       </c>
       <c r="C34">
-        <v>16965.42533363671</v>
+        <v>10855.93583919673</v>
       </c>
       <c r="D34">
-        <v>60610.72984448709</v>
+        <v>2798.917587411299</v>
       </c>
       <c r="E34">
-        <v>5139.192937197779</v>
+        <v>2138.875303666676</v>
       </c>
       <c r="F34">
-        <v>796.555781055952</v>
+        <v>1079.722876542182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>139.3</v>
+        <v>188.4</v>
       </c>
       <c r="B35">
-        <v>42180.26381113064</v>
+        <v>13848.93714063651</v>
       </c>
       <c r="C35">
-        <v>15429.28218225222</v>
+        <v>10521.89705174833</v>
       </c>
       <c r="D35">
-        <v>60249.01652770572</v>
+        <v>2029.215839458637</v>
       </c>
       <c r="E35">
-        <v>4833.146829798598</v>
+        <v>2473.56699880484</v>
       </c>
       <c r="F35">
-        <v>536.7986937443889</v>
+        <v>1181.440873774982</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>141.3</v>
+        <v>191</v>
       </c>
       <c r="B36">
-        <v>35209.53297318867</v>
+        <v>12902.02546675473</v>
       </c>
       <c r="C36">
-        <v>15104.36766114464</v>
+        <v>9735.157552893645</v>
       </c>
       <c r="D36">
-        <v>55153.64587428058</v>
+        <v>2103.900820033916</v>
       </c>
       <c r="E36">
-        <v>5090.309943879254</v>
+        <v>431.9141324392892</v>
       </c>
       <c r="F36">
-        <v>396.9930238951385</v>
+        <v>873.3829576033661</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>143.9</v>
+        <v>193.3</v>
       </c>
       <c r="B37">
-        <v>34437.58288386422</v>
+        <v>4662.065139859274</v>
       </c>
       <c r="C37">
-        <v>15407.97878370478</v>
+        <v>11191.11876544525</v>
       </c>
       <c r="D37">
-        <v>54438.66402482793</v>
+        <v>1434.199072081254</v>
       </c>
       <c r="E37">
-        <v>4747.621992184102</v>
+        <v>1306.605827577461</v>
       </c>
       <c r="F37">
-        <v>1017.245653091113</v>
+        <v>1155.100954836167</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>146.2</v>
+        <v>195.5</v>
       </c>
       <c r="B38">
-        <v>37216.24242023112</v>
+        <v>12097.75526195929</v>
       </c>
       <c r="C38">
-        <v>16262.32708443106</v>
+        <v>12534.646881799</v>
       </c>
       <c r="D38">
-        <v>50143.48777338905</v>
+        <v>1799.701747952626</v>
       </c>
       <c r="E38">
-        <v>4744.859573376855</v>
+        <v>2576.745709883531</v>
       </c>
       <c r="F38">
-        <v>1237.469132764476</v>
+        <v>976.7442565371068</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>148.4</v>
+        <v>197.8</v>
       </c>
       <c r="B39">
-        <v>38718.43849849495</v>
+        <v>18977.79493506383</v>
       </c>
       <c r="C39">
-        <v>17586.92111121273</v>
+        <v>12170.6080943506</v>
       </c>
       <c r="D39">
-        <v>47661.58005462141</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>5268.738998865578</v>
+        <v>2151.437405021696</v>
       </c>
       <c r="F39">
-        <v>1287.682895930301</v>
+        <v>1048.462253769909</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>150.8</v>
+        <v>200.1</v>
       </c>
       <c r="B40">
-        <v>32213.5614929647</v>
+        <v>18547.83460816849</v>
       </c>
       <c r="C40">
-        <v>18181.02368588362</v>
+        <v>11286.56930690224</v>
       </c>
       <c r="D40">
-        <v>45113.13527051126</v>
+        <v>1020.298252047338</v>
       </c>
       <c r="E40">
-        <v>5009.33473576236</v>
+        <v>976.1291001598604</v>
       </c>
       <c r="F40">
-        <v>1547.9160921112</v>
+        <v>1290.180251002708</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>153.3</v>
+        <v>202.7</v>
       </c>
       <c r="B41">
-        <v>25665.14794553741</v>
+        <v>25400.9229342867</v>
       </c>
       <c r="C41">
-        <v>18744.88053449915</v>
+        <v>12449.82980804755</v>
       </c>
       <c r="D41">
-        <v>43551.42195372986</v>
+        <v>3344.983232622588</v>
       </c>
       <c r="E41">
-        <v>5673.288628363179</v>
+        <v>2324.476233794317</v>
       </c>
       <c r="F41">
-        <v>2068.159004799638</v>
+        <v>892.1223348310916</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>155.6</v>
+        <v>204.9</v>
       </c>
       <c r="B42">
-        <v>28343.80748190419</v>
+        <v>29696.61305638672</v>
       </c>
       <c r="C42">
-        <v>18089.22883522543</v>
+        <v>13593.35792440127</v>
       </c>
       <c r="D42">
-        <v>41496.24570229097</v>
+        <v>100.4859084939671</v>
       </c>
       <c r="E42">
-        <v>5580.526209555938</v>
+        <v>1764.616116100386</v>
       </c>
       <c r="F42">
-        <v>2358.382484473</v>
+        <v>1363.765636532033</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>157.9</v>
+        <v>207.2</v>
       </c>
       <c r="B43">
-        <v>32102.46701827098</v>
+        <v>43696.65272949125</v>
       </c>
       <c r="C43">
-        <v>18343.57713595171</v>
+        <v>14399.31913695287</v>
       </c>
       <c r="D43">
-        <v>40311.06945085206</v>
+        <v>1780.784160541327</v>
       </c>
       <c r="E43">
-        <v>5657.763790748691</v>
+        <v>1249.307811238551</v>
       </c>
       <c r="F43">
-        <v>2028.605964146363</v>
+        <v>1375.483633764833</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>160.2</v>
+        <v>209.5</v>
       </c>
       <c r="B44">
-        <v>24681.12655463788</v>
+        <v>51866.6924025958</v>
       </c>
       <c r="C44">
-        <v>16717.92543667796</v>
+        <v>14865.28034950451</v>
       </c>
       <c r="D44">
-        <v>37875.89319941319</v>
+        <v>1641.082412588672</v>
       </c>
       <c r="E44">
-        <v>5695.001371941443</v>
+        <v>2503.999506376723</v>
       </c>
       <c r="F44">
-        <v>1828.829443819725</v>
+        <v>1537.201630997635</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>162.5</v>
+        <v>211.8</v>
       </c>
       <c r="B45">
-        <v>24299.78609100467</v>
+        <v>67776.73207570033</v>
       </c>
       <c r="C45">
-        <v>17852.27373740424</v>
+        <v>16081.24156205612</v>
       </c>
       <c r="D45">
-        <v>35490.7169479743</v>
+        <v>171.3806646360099</v>
       </c>
       <c r="E45">
-        <v>4442.238953134195</v>
+        <v>2108.69120151488</v>
       </c>
       <c r="F45">
-        <v>1299.052923493087</v>
+        <v>1578.919628230435</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>165.1</v>
+        <v>214</v>
       </c>
       <c r="B46">
-        <v>21267.83600168022</v>
+        <v>74102.42219780035</v>
       </c>
       <c r="C46">
-        <v>19425.88485996438</v>
+        <v>14054.76967840986</v>
       </c>
       <c r="D46">
-        <v>34905.73509852163</v>
+        <v>4306.883340507389</v>
       </c>
       <c r="E46">
-        <v>5269.551001439051</v>
+        <v>2318.831083820957</v>
       </c>
       <c r="F46">
-        <v>1199.305552689062</v>
+        <v>1300.562929931375</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>167</v>
+        <v>216.6</v>
       </c>
       <c r="B47">
-        <v>26570.6417056354</v>
+        <v>97435.51052391857</v>
       </c>
       <c r="C47">
-        <v>18761.21606491219</v>
+        <v>16028.03017955517</v>
       </c>
       <c r="D47">
-        <v>34433.63297776778</v>
+        <v>1501.568321082668</v>
       </c>
       <c r="E47">
-        <v>5783.35595981567</v>
+        <v>2097.178217455406</v>
       </c>
       <c r="F47">
-        <v>1369.490166332273</v>
+        <v>1262.505013759758</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>169.6</v>
+        <v>219</v>
       </c>
       <c r="B48">
-        <v>20198.69161631095</v>
+        <v>108249.8997480277</v>
       </c>
       <c r="C48">
-        <v>16484.82718747233</v>
+        <v>13836.42448830467</v>
       </c>
       <c r="D48">
-        <v>31998.65112831511</v>
+        <v>2386.662149305965</v>
       </c>
       <c r="E48">
-        <v>4350.668008120527</v>
+        <v>2696.421725425665</v>
       </c>
       <c r="F48">
-        <v>869.7427955282493</v>
+        <v>1594.297706524421</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>171.8</v>
+        <v>221.2</v>
       </c>
       <c r="B49">
-        <v>18920.88769457489</v>
+        <v>128305.5898701278</v>
       </c>
       <c r="C49">
-        <v>15909.42121425397</v>
+        <v>14039.95260465842</v>
       </c>
       <c r="D49">
-        <v>31156.74340954747</v>
+        <v>2242.164825177344</v>
       </c>
       <c r="E49">
-        <v>5534.547433609242</v>
+        <v>2996.561607731743</v>
       </c>
       <c r="F49">
-        <v>959.956558694074</v>
+        <v>1835.941008225361</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>174.4</v>
+        <v>223.5</v>
       </c>
       <c r="B50">
-        <v>15568.93760525044</v>
+        <v>154055.6295432323</v>
       </c>
       <c r="C50">
-        <v>19923.03233681411</v>
+        <v>17405.91381721002</v>
       </c>
       <c r="D50">
-        <v>29791.76156009483</v>
+        <v>3972.463077224711</v>
       </c>
       <c r="E50">
-        <v>5871.85948191409</v>
+        <v>2661.253302869907</v>
       </c>
       <c r="F50">
-        <v>1260.209187890048</v>
+        <v>1537.659005458161</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>177</v>
+        <v>225.8</v>
       </c>
       <c r="B51">
-        <v>22416.98751592587</v>
+        <v>189675.6692163369</v>
       </c>
       <c r="C51">
-        <v>17696.64345937426</v>
+        <v>18731.87502976163</v>
       </c>
       <c r="D51">
-        <v>29606.77971064218</v>
+        <v>3672.761329272049</v>
       </c>
       <c r="E51">
-        <v>5009.171530218946</v>
+        <v>2575.944998008072</v>
       </c>
       <c r="F51">
-        <v>1000.461817086024</v>
+        <v>1569.377002690963</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>179.3</v>
+        <v>228</v>
       </c>
       <c r="B52">
-        <v>17325.64705229278</v>
+        <v>215081.3593384369</v>
       </c>
       <c r="C52">
-        <v>20540.99176010054</v>
+        <v>18295.40314611538</v>
       </c>
       <c r="D52">
-        <v>28221.60345920327</v>
+        <v>4408.264005143428</v>
       </c>
       <c r="E52">
-        <v>4946.409111411698</v>
+        <v>1956.084880314142</v>
       </c>
       <c r="F52">
-        <v>1070.685296759386</v>
+        <v>1321.020304391903</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>181.5</v>
+        <v>230.6</v>
       </c>
       <c r="B53">
-        <v>15297.84313055672</v>
+        <v>228394.4476645551</v>
       </c>
       <c r="C53">
-        <v>21885.58578688221</v>
+        <v>18118.66364726069</v>
       </c>
       <c r="D53">
-        <v>28959.69574043564</v>
+        <v>4582.948985718671</v>
       </c>
       <c r="E53">
-        <v>5600.288536900421</v>
+        <v>2554.432013948591</v>
       </c>
       <c r="F53">
-        <v>1080.89905992521</v>
+        <v>1542.962388220286</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>183.8</v>
+        <v>232.9</v>
       </c>
       <c r="B54">
-        <v>24496.50266692351</v>
+        <v>264584.4873376596</v>
       </c>
       <c r="C54">
-        <v>19649.93408760849</v>
+        <v>17074.62485981229</v>
       </c>
       <c r="D54">
-        <v>24924.51948899675</v>
+        <v>3953.247237766045</v>
       </c>
       <c r="E54">
-        <v>6397.526118093173</v>
+        <v>2289.123709086763</v>
       </c>
       <c r="F54">
-        <v>1111.122539598573</v>
+        <v>1254.680385453086</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>186.1</v>
+        <v>235.2</v>
       </c>
       <c r="B55">
-        <v>19915.1622032903</v>
+        <v>293294.5270107643</v>
       </c>
       <c r="C55">
-        <v>21804.28238833477</v>
+        <v>16570.58607236393</v>
       </c>
       <c r="D55">
-        <v>26899.34323755787</v>
+        <v>3593.545489813383</v>
       </c>
       <c r="E55">
-        <v>6204.763699285926</v>
+        <v>2483.815404224928</v>
       </c>
       <c r="F55">
-        <v>1271.346019271935</v>
+        <v>1236.398382685888</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>188.4</v>
+        <v>237.5</v>
       </c>
       <c r="B56">
-        <v>28313.82173965708</v>
+        <v>331214.5666838688</v>
       </c>
       <c r="C56">
-        <v>21408.63068906105</v>
+        <v>17526.54728491554</v>
       </c>
       <c r="D56">
-        <v>25714.16698611896</v>
+        <v>3373.843741860721</v>
       </c>
       <c r="E56">
-        <v>6512.001280478678</v>
+        <v>2868.507099363092</v>
       </c>
       <c r="F56">
-        <v>1371.569498945297</v>
+        <v>1608.116379918689</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>191</v>
+        <v>239.7</v>
       </c>
       <c r="B57">
-        <v>27161.87165033264</v>
+        <v>380630.2568059688</v>
       </c>
       <c r="C57">
-        <v>20552.24181162119</v>
+        <v>19820.07540126929</v>
       </c>
       <c r="D57">
-        <v>25319.18513666632</v>
+        <v>3939.3464177321</v>
       </c>
       <c r="E57">
-        <v>4439.313328783534</v>
+        <v>2058.646981669162</v>
       </c>
       <c r="F57">
-        <v>1061.822128141273</v>
+        <v>1309.759681619629</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>193.3</v>
+        <v>242</v>
       </c>
       <c r="B58">
-        <v>18740.53118669954</v>
+        <v>399120.2964790734</v>
       </c>
       <c r="C58">
-        <v>21946.59011234747</v>
+        <v>18066.03661382089</v>
       </c>
       <c r="D58">
-        <v>24234.00888522743</v>
+        <v>3029.644669779474</v>
       </c>
       <c r="E58">
-        <v>5286.550909976286</v>
+        <v>2693.338676807334</v>
       </c>
       <c r="F58">
-        <v>1342.045607814635</v>
+        <v>1021.477678852429</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>195.5</v>
+        <v>244.6</v>
       </c>
       <c r="B59">
-        <v>26002.72726496348</v>
+        <v>442893.3848051915</v>
       </c>
       <c r="C59">
-        <v>23231.18413912911</v>
+        <v>19639.2971149662</v>
       </c>
       <c r="D59">
-        <v>24202.1011664598</v>
+        <v>4354.329650354717</v>
       </c>
       <c r="E59">
-        <v>6530.430335465002</v>
+        <v>3091.685810441782</v>
       </c>
       <c r="F59">
-        <v>1162.259370980459</v>
+        <v>1243.419762680812</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>197.8</v>
+        <v>246.9</v>
       </c>
       <c r="B60">
-        <v>32701.38680133027</v>
+        <v>489903.4244782961</v>
       </c>
       <c r="C60">
-        <v>22805.53243985539</v>
+        <v>19045.25832751784</v>
       </c>
       <c r="D60">
-        <v>21986.92491502089</v>
+        <v>2714.62790240207</v>
       </c>
       <c r="E60">
-        <v>6077.667916657761</v>
+        <v>2186.377505579947</v>
       </c>
       <c r="F60">
-        <v>1232.482850653822</v>
+        <v>1155.137759913614</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>200.1</v>
+        <v>249.2</v>
       </c>
       <c r="B61">
-        <v>32090.04633769706</v>
+        <v>528093.4641514006</v>
       </c>
       <c r="C61">
-        <v>21859.88074058167</v>
+        <v>18181.21954006945</v>
       </c>
       <c r="D61">
-        <v>22591.74866358201</v>
+        <v>1964.926154449422</v>
       </c>
       <c r="E61">
-        <v>4874.905497850514</v>
+        <v>2541.069200718112</v>
       </c>
       <c r="F61">
-        <v>1472.706330327184</v>
+        <v>966.8557571464157</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>202.7</v>
+        <v>251.4</v>
       </c>
       <c r="B62">
-        <v>38738.0962483726</v>
+        <v>560189.1542735008</v>
       </c>
       <c r="C62">
-        <v>22953.49186314181</v>
+        <v>18824.74765642316</v>
       </c>
       <c r="D62">
-        <v>24446.76681412937</v>
+        <v>1550.428830320801</v>
       </c>
       <c r="E62">
-        <v>6192.217546155362</v>
+        <v>2481.209083024181</v>
       </c>
       <c r="F62">
-        <v>1072.958959523159</v>
+        <v>1058.499058847356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>204.9</v>
+        <v>253.7</v>
       </c>
       <c r="B63">
-        <v>42860.29232663655</v>
+        <v>603049.1939466052</v>
       </c>
       <c r="C63">
-        <v>24038.08588992348</v>
+        <v>17760.7088689748</v>
       </c>
       <c r="D63">
-        <v>20804.85909536173</v>
+        <v>5180.727082368139</v>
       </c>
       <c r="E63">
-        <v>5606.096971644085</v>
+        <v>2925.900778162354</v>
       </c>
       <c r="F63">
-        <v>1543.172722688983</v>
+        <v>920.2170560801555</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>207.2</v>
+        <v>256.4</v>
       </c>
       <c r="B64">
-        <v>56678.95186300334</v>
+        <v>622936.6318237282</v>
       </c>
       <c r="C64">
-        <v>24782.43419064974</v>
+        <v>17936.402466318</v>
       </c>
       <c r="D64">
-        <v>22069.68284392285</v>
+        <v>5820.207639119377</v>
       </c>
       <c r="E64">
-        <v>5063.334552836838</v>
+        <v>2998.799724628898</v>
       </c>
       <c r="F64">
-        <v>1553.396202362345</v>
+        <v>922.2338354404005</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>209.5</v>
+        <v>258.7</v>
       </c>
       <c r="B65">
-        <v>64667.61139937013</v>
+        <v>676666.6714968326</v>
       </c>
       <c r="C65">
-        <v>25186.78249137602</v>
+        <v>18702.36367886961</v>
       </c>
       <c r="D65">
-        <v>21514.50659248394</v>
+        <v>5510.505891166715</v>
       </c>
       <c r="E65">
-        <v>6290.57213402959</v>
+        <v>3843.491419767062</v>
       </c>
       <c r="F65">
-        <v>1713.619682035709</v>
+        <v>583.9518326732012</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>211.8</v>
+        <v>260.9</v>
       </c>
       <c r="B66">
-        <v>80396.27093573703</v>
+        <v>721332.3616189327</v>
       </c>
       <c r="C66">
-        <v>26341.13079210229</v>
+        <v>19245.89179522335</v>
       </c>
       <c r="D66">
-        <v>19629.33034104505</v>
+        <v>3876.008567038094</v>
       </c>
       <c r="E66">
-        <v>5867.809715222342</v>
+        <v>3433.631302073132</v>
       </c>
       <c r="F66">
-        <v>1753.843161709071</v>
+        <v>505.5951343741412</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>214</v>
+        <v>263.2</v>
       </c>
       <c r="B67">
-        <v>86548.46701400097</v>
+        <v>734742.4012920371</v>
       </c>
       <c r="C67">
-        <v>24255.72481888397</v>
+        <v>20251.85300777496</v>
       </c>
       <c r="D67">
-        <v>23367.42262227742</v>
+        <v>4496.306819085454</v>
       </c>
       <c r="E67">
-        <v>6051.689140711065</v>
+        <v>2508.322997211304</v>
       </c>
       <c r="F67">
-        <v>1474.056924874895</v>
+        <v>817.3131316069419</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>216.6</v>
+        <v>265.5</v>
       </c>
       <c r="B68">
-        <v>109676.5169246764</v>
+        <v>739572.4409651418</v>
       </c>
       <c r="C68">
-        <v>26159.33594144411</v>
+        <v>19567.8142203266</v>
       </c>
       <c r="D68">
-        <v>20092.44077282478</v>
+        <v>4916.605071132799</v>
       </c>
       <c r="E68">
-        <v>5799.00118901592</v>
+        <v>4223.014692349469</v>
       </c>
       <c r="F68">
-        <v>1434.30955407087</v>
+        <v>849.0311288397436</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>219</v>
+        <v>268.1</v>
       </c>
       <c r="B69">
-        <v>120301.6399191462</v>
+        <v>785085.5292912601</v>
       </c>
       <c r="C69">
-        <v>23903.438516115</v>
+        <v>18791.0747214719</v>
       </c>
       <c r="D69">
-        <v>20543.99598871462</v>
+        <v>7671.290051708056</v>
       </c>
       <c r="E69">
-        <v>6369.596925912703</v>
+        <v>3731.361825983917</v>
       </c>
       <c r="F69">
-        <v>1764.542750251769</v>
+        <v>660.9732126681268</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>221.2</v>
+        <v>270.7</v>
       </c>
       <c r="B70">
-        <v>140183.8359974101</v>
+        <v>793768.6176173782</v>
       </c>
       <c r="C70">
-        <v>24048.03254289667</v>
+        <v>19644.33522261721</v>
       </c>
       <c r="D70">
-        <v>20002.08826994698</v>
+        <v>7285.975032283328</v>
       </c>
       <c r="E70">
-        <v>6643.476351401426</v>
+        <v>4129.708959618366</v>
       </c>
       <c r="F70">
-        <v>2004.756513417596</v>
+        <v>732.9152964965101</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>223.5</v>
+        <v>273</v>
       </c>
       <c r="B71">
-        <v>165752.4955337769</v>
+        <v>793368.6572904827</v>
       </c>
       <c r="C71">
-        <v>27352.38084362295</v>
+        <v>18800.29643516882</v>
       </c>
       <c r="D71">
-        <v>21316.9120185081</v>
+        <v>7166.273284330666</v>
       </c>
       <c r="E71">
-        <v>6280.713932594178</v>
+        <v>3584.40065475653</v>
       </c>
       <c r="F71">
-        <v>1704.979993090958</v>
+        <v>794.6332937293109</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>225.8</v>
+        <v>275.5</v>
       </c>
       <c r="B72">
-        <v>201191.1550701438</v>
+        <v>744237.3960655964</v>
       </c>
       <c r="C72">
-        <v>28616.7291443492</v>
+        <v>19071.12384011624</v>
       </c>
       <c r="D72">
-        <v>20601.73576706922</v>
+        <v>6806.16268872995</v>
       </c>
       <c r="E72">
-        <v>6167.95151378693</v>
+        <v>3308.195975558885</v>
       </c>
       <c r="F72">
-        <v>1735.203472764319</v>
+        <v>436.5006820258333</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>228</v>
+        <v>277.8</v>
       </c>
       <c r="B73">
-        <v>226423.3511484076</v>
+        <v>669777.435738701</v>
       </c>
       <c r="C73">
-        <v>28121.32317113087</v>
+        <v>18377.08505266788</v>
       </c>
       <c r="D73">
-        <v>20939.82804830158</v>
+        <v>8166.460940777324</v>
       </c>
       <c r="E73">
-        <v>5521.830939275654</v>
+        <v>3352.88767069705</v>
       </c>
       <c r="F73">
-        <v>1485.417235930144</v>
+        <v>788.2186792586349</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>230.6</v>
+        <v>280.1</v>
       </c>
       <c r="B74">
-        <v>239531.4010590832</v>
+        <v>600617.4754118057</v>
       </c>
       <c r="C74">
-        <v>27874.93429369101</v>
+        <v>20233.04626521948</v>
       </c>
       <c r="D74">
-        <v>20644.84619884891</v>
+        <v>8586.759192824662</v>
       </c>
       <c r="E74">
-        <v>6089.142987580502</v>
+        <v>3777.579365835221</v>
       </c>
       <c r="F74">
-        <v>1705.669865126119</v>
+        <v>879.9366764914348</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>232.9</v>
+        <v>282.7</v>
       </c>
       <c r="B75">
-        <v>275540.06059545</v>
+        <v>539650.5637379239</v>
       </c>
       <c r="C75">
-        <v>26769.28259441729</v>
+        <v>20736.30676636479</v>
       </c>
       <c r="D75">
-        <v>19599.66994741003</v>
+        <v>6861.444173399927</v>
       </c>
       <c r="E75">
-        <v>5796.380568773261</v>
+        <v>2905.92649946967</v>
       </c>
       <c r="F75">
-        <v>1415.893344799481</v>
+        <v>501.878760319819</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>235.2</v>
+        <v>285</v>
       </c>
       <c r="B76">
-        <v>304068.7201318169</v>
+        <v>499590.6034110283</v>
       </c>
       <c r="C76">
-        <v>26203.63089514357</v>
+        <v>18852.26797891643</v>
       </c>
       <c r="D76">
-        <v>18824.49369597115</v>
+        <v>7251.742425447272</v>
       </c>
       <c r="E76">
-        <v>5963.618149966014</v>
+        <v>2730.618194607835</v>
       </c>
       <c r="F76">
-        <v>1396.116824472845</v>
+        <v>683.5967575526197</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>237.5</v>
+        <v>287.3</v>
       </c>
       <c r="B77">
-        <v>341807.3796681837</v>
+        <v>430520.6430841329</v>
       </c>
       <c r="C77">
-        <v>27097.97919586985</v>
+        <v>21158.22919146804</v>
       </c>
       <c r="D77">
-        <v>18189.31744453224</v>
+        <v>7422.040677494617</v>
       </c>
       <c r="E77">
-        <v>6320.855731158767</v>
+        <v>3395.309889745999</v>
       </c>
       <c r="F77">
-        <v>1766.340304146207</v>
+        <v>735.3147547854205</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>239.7</v>
+        <v>289.6</v>
       </c>
       <c r="B78">
-        <v>391049.5757464476</v>
+        <v>391420.6827572375</v>
       </c>
       <c r="C78">
-        <v>29332.57322265152</v>
+        <v>24204.19040401964</v>
       </c>
       <c r="D78">
-        <v>18357.4097257646</v>
+        <v>8812.338929541991</v>
       </c>
       <c r="E78">
-        <v>5484.735156647489</v>
+        <v>3050.001584884164</v>
       </c>
       <c r="F78">
-        <v>1466.554067312031</v>
+        <v>547.0327520182221</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>242</v>
+        <v>291.9</v>
       </c>
       <c r="B79">
-        <v>409358.2352828144</v>
+        <v>355000.7224303421</v>
       </c>
       <c r="C79">
-        <v>27516.92152337778</v>
+        <v>25000.15161657128</v>
       </c>
       <c r="D79">
-        <v>17032.23347432572</v>
+        <v>7602.637181589322</v>
       </c>
       <c r="E79">
-        <v>6091.972737840234</v>
+        <v>2894.693280022337</v>
       </c>
       <c r="F79">
-        <v>1176.777546985393</v>
+        <v>648.750749251023</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>244.6</v>
+        <v>294.5</v>
       </c>
       <c r="B80">
-        <v>452926.28519349</v>
+        <v>322983.8107564603</v>
       </c>
       <c r="C80">
-        <v>29020.53264593795</v>
+        <v>25793.41211771659</v>
       </c>
       <c r="D80">
-        <v>17887.25162487307</v>
+        <v>8507.322162164572</v>
       </c>
       <c r="E80">
-        <v>6459.28478614509</v>
+        <v>3193.040413656785</v>
       </c>
       <c r="F80">
-        <v>1397.030176181368</v>
+        <v>620.6928330794062</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>246.9</v>
+        <v>296.8</v>
       </c>
       <c r="B81">
-        <v>499754.9447298569</v>
+        <v>309903.8504295648</v>
       </c>
       <c r="C81">
-        <v>28364.88094666419</v>
+        <v>35899.37333026819</v>
       </c>
       <c r="D81">
-        <v>15832.07537343418</v>
+        <v>8727.620414211939</v>
       </c>
       <c r="E81">
-        <v>5526.522367337842</v>
+        <v>2537.732108794949</v>
       </c>
       <c r="F81">
-        <v>1307.25365585473</v>
+        <v>622.4108303122069</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>249.2</v>
+        <v>299.1</v>
       </c>
       <c r="B82">
-        <v>537763.6042662236</v>
+        <v>290363.8901026695</v>
       </c>
       <c r="C82">
-        <v>27439.22924739048</v>
+        <v>31205.33454281983</v>
       </c>
       <c r="D82">
-        <v>14666.89912199528</v>
+        <v>9517.918666259284</v>
       </c>
       <c r="E82">
-        <v>5853.759948530595</v>
+        <v>3212.423803933114</v>
       </c>
       <c r="F82">
-        <v>1117.477135528093</v>
+        <v>524.1288275450077</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>251.4</v>
+        <v>301.7</v>
       </c>
       <c r="B83">
-        <v>569685.8003444874</v>
+        <v>262806.9784287876</v>
       </c>
       <c r="C83">
-        <v>28023.82327417215</v>
+        <v>34058.59504396514</v>
       </c>
       <c r="D83">
-        <v>13854.99140322765</v>
+        <v>7872.603646834541</v>
       </c>
       <c r="E83">
-        <v>5767.639374019317</v>
+        <v>1920.770937567563</v>
       </c>
       <c r="F83">
-        <v>1207.690898693918</v>
+        <v>616.0709113733919</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>253.7</v>
+        <v>303.9</v>
       </c>
       <c r="B84">
-        <v>612364.4598808544</v>
+        <v>242862.6685508877</v>
       </c>
       <c r="C84">
-        <v>26898.17157489842</v>
+        <v>34182.12316031886</v>
       </c>
       <c r="D84">
-        <v>17069.81515178877</v>
+        <v>9448.106322705906</v>
       </c>
       <c r="E84">
-        <v>6184.87695521207</v>
+        <v>3620.91081987364</v>
       </c>
       <c r="F84">
-        <v>1067.91437836728</v>
+        <v>597.7142130743318</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>256.4</v>
+        <v>306.2</v>
       </c>
       <c r="B85">
-        <v>632038.9732496326</v>
+        <v>228412.7082239923</v>
       </c>
       <c r="C85">
-        <v>27001.53697140318</v>
+        <v>39778.08437287049</v>
       </c>
       <c r="D85">
-        <v>17221.56476966484</v>
+        <v>8778.404574753265</v>
       </c>
       <c r="E85">
-        <v>6225.547159220955</v>
+        <v>1045.602515011805</v>
       </c>
       <c r="F85">
-        <v>1068.176724070792</v>
+        <v>339.4322103071326</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>258.7</v>
+        <v>308.5</v>
       </c>
       <c r="B86">
-        <v>685587.6327859996</v>
+        <v>216752.7478970968</v>
       </c>
       <c r="C86">
-        <v>27705.88527212946</v>
+        <v>40224.04558542211</v>
       </c>
       <c r="D86">
-        <v>16496.38851822597</v>
+        <v>7868.702826800611</v>
       </c>
       <c r="E86">
-        <v>7042.784740413707</v>
+        <v>2730.294210149969</v>
       </c>
       <c r="F86">
-        <v>728.4002037441549</v>
+        <v>391.1502075399333</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>260.9</v>
+        <v>310.8</v>
       </c>
       <c r="B87">
-        <v>730079.8288642635</v>
+        <v>209462.7875702013</v>
       </c>
       <c r="C87">
-        <v>28190.47929891113</v>
+        <v>39630.00679797374</v>
       </c>
       <c r="D87">
-        <v>14464.48079945833</v>
+        <v>9389.001078847963</v>
       </c>
       <c r="E87">
-        <v>6606.66416590243</v>
+        <v>2154.985905288134</v>
       </c>
       <c r="F87">
-        <v>648.6139669099796</v>
+        <v>482.8682047727341</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>263.2</v>
+        <v>313.4</v>
       </c>
       <c r="B88">
-        <v>743308.4884006302</v>
+        <v>200795.8758963196</v>
       </c>
       <c r="C88">
-        <v>29134.82759963741</v>
+        <v>40813.26729911905</v>
       </c>
       <c r="D88">
-        <v>14669.30454801943</v>
+        <v>6943.68605942322</v>
       </c>
       <c r="E88">
-        <v>5653.901747095183</v>
+        <v>3173.33303892259</v>
       </c>
       <c r="F88">
-        <v>958.8374465833415</v>
+        <v>554.8102886011173</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>265.5</v>
+        <v>315.3</v>
       </c>
       <c r="B89">
-        <v>747957.1479369971</v>
+        <v>184258.517365406</v>
       </c>
       <c r="C89">
-        <v>28389.17590036366</v>
+        <v>37319.49612687906</v>
       </c>
       <c r="D89">
-        <v>14674.12829658055</v>
+        <v>5324.80200676668</v>
       </c>
       <c r="E89">
-        <v>7341.139328287934</v>
+        <v>2089.817482732376</v>
       </c>
       <c r="F89">
-        <v>989.0609262567042</v>
+        <v>406.2295037064748</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>268.1</v>
+        <v>317.9</v>
       </c>
       <c r="B90">
-        <v>793265.1978476726</v>
+        <v>192661.6056915241</v>
       </c>
       <c r="C90">
-        <v>27542.7870229238</v>
+        <v>35272.75662802441</v>
       </c>
       <c r="D90">
-        <v>16959.14644712789</v>
+        <v>8239.486987341945</v>
       </c>
       <c r="E90">
-        <v>6818.451376592782</v>
+        <v>2808.164616366825</v>
       </c>
       <c r="F90">
-        <v>799.3135554526791</v>
+        <v>488.171587534859</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>270.7</v>
+        <v>320.2</v>
       </c>
       <c r="B91">
-        <v>801743.2477583481</v>
+        <v>173281.6453646288</v>
       </c>
       <c r="C91">
-        <v>28326.39814548394</v>
+        <v>28188.71784057601</v>
       </c>
       <c r="D91">
-        <v>16104.16459767524</v>
+        <v>7319.785239389297</v>
       </c>
       <c r="E91">
-        <v>7185.763424897639</v>
+        <v>2302.856311504989</v>
       </c>
       <c r="F91">
-        <v>869.5661846486539</v>
+        <v>399.8895847676598</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>273</v>
+        <v>322.5</v>
       </c>
       <c r="B92">
-        <v>801161.9072947151</v>
+        <v>170621.6850377333</v>
       </c>
       <c r="C92">
-        <v>27420.74644621023</v>
+        <v>27754.67905312762</v>
       </c>
       <c r="D92">
-        <v>15568.98834623633</v>
+        <v>9290.08349143665</v>
       </c>
       <c r="E92">
-        <v>6613.001006090391</v>
+        <v>4077.548006643155</v>
       </c>
       <c r="F92">
-        <v>929.7896643220158</v>
+        <v>581.6075820004605</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>275.5</v>
+        <v>324.8</v>
       </c>
       <c r="B93">
-        <v>751833.4937472877</v>
+        <v>185331.7247108378</v>
       </c>
       <c r="C93">
-        <v>27624.60329482576</v>
+        <v>21690.64026567925</v>
       </c>
       <c r="D93">
-        <v>14757.27502945493</v>
+        <v>8820.381743483988</v>
       </c>
       <c r="E93">
-        <v>6306.95489869121</v>
+        <v>3622.239701781319</v>
       </c>
       <c r="F93">
-        <v>570.0325770104536</v>
+        <v>713.3255792332612</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>277.8</v>
+        <v>327</v>
       </c>
       <c r="B94">
-        <v>677192.1532836546</v>
+        <v>172157.4148329379</v>
       </c>
       <c r="C94">
-        <v>26868.95159555204</v>
+        <v>16334.16838203297</v>
       </c>
       <c r="D94">
-        <v>15702.09877801605</v>
+        <v>10635.88441935537</v>
       </c>
       <c r="E94">
-        <v>6324.192479883963</v>
+        <v>3662.379584087396</v>
       </c>
       <c r="F94">
-        <v>920.2560566838154</v>
+        <v>464.9688809342012</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>280.1</v>
+        <v>329.6</v>
       </c>
       <c r="B95">
-        <v>607850.8128200213</v>
+        <v>183910.5031590561</v>
       </c>
       <c r="C95">
-        <v>28663.29989627831</v>
+        <v>17067.42888317828</v>
       </c>
       <c r="D95">
-        <v>15706.92252657717</v>
+        <v>9660.569399930631</v>
       </c>
       <c r="E95">
-        <v>6721.430061076715</v>
+        <v>4150.726717721845</v>
       </c>
       <c r="F95">
-        <v>1010.479536357178</v>
+        <v>346.9109647625854</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>282.7</v>
+        <v>331.9</v>
       </c>
       <c r="B96">
-        <v>546678.8627306969</v>
+        <v>186110.5428321606</v>
       </c>
       <c r="C96">
-        <v>29096.91101883846</v>
+        <v>13203.39009572992</v>
       </c>
       <c r="D96">
-        <v>13511.94067712449</v>
+        <v>9850.867651977984</v>
       </c>
       <c r="E96">
-        <v>5818.74210938157</v>
+        <v>3405.41841286001</v>
       </c>
       <c r="F96">
-        <v>630.732165553153</v>
+        <v>498.6289619953861</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>285</v>
+        <v>334.2</v>
       </c>
       <c r="B97">
-        <v>506437.5222670638</v>
+        <v>180480.5825052653</v>
       </c>
       <c r="C97">
-        <v>27151.25931956474</v>
+        <v>11789.35130828152</v>
       </c>
       <c r="D97">
-        <v>13486.76442568561</v>
+        <v>15051.16590402532</v>
       </c>
       <c r="E97">
-        <v>5615.979690574322</v>
+        <v>3700.110107998182</v>
       </c>
       <c r="F97">
-        <v>810.9556452265149</v>
+        <v>240.3469592281869</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>287.3</v>
+        <v>336.4</v>
       </c>
       <c r="B98">
-        <v>437186.1818034306</v>
+        <v>191546.2726273653</v>
       </c>
       <c r="C98">
-        <v>29395.60762029102</v>
+        <v>15092.87942463527</v>
       </c>
       <c r="D98">
-        <v>13241.58817424672</v>
+        <v>12326.6685798967</v>
       </c>
       <c r="E98">
-        <v>6253.217271767075</v>
+        <v>4710.249990304252</v>
       </c>
       <c r="F98">
-        <v>861.1791248998776</v>
+        <v>301.9902609291269</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>289.6</v>
+        <v>338.7</v>
       </c>
       <c r="B99">
-        <v>397904.8413397974</v>
+        <v>180796.3123004698</v>
       </c>
       <c r="C99">
-        <v>32379.95592101727</v>
+        <v>12198.84063718688</v>
       </c>
       <c r="D99">
-        <v>14216.41192280782</v>
+        <v>10816.96683194405</v>
       </c>
       <c r="E99">
-        <v>5880.454852959827</v>
+        <v>5044.941685442416</v>
       </c>
       <c r="F99">
-        <v>671.4026045732394</v>
+        <v>733.7082581619277</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>291.9</v>
+        <v>341.2</v>
       </c>
       <c r="B100">
-        <v>361303.5008761643</v>
+        <v>178005.0510755836</v>
       </c>
       <c r="C100">
-        <v>33114.30422174359</v>
+        <v>11579.6680421343</v>
       </c>
       <c r="D100">
-        <v>12591.23567136894</v>
+        <v>12246.85623634334</v>
       </c>
       <c r="E100">
-        <v>5697.692434152587</v>
+        <v>6918.737006244769</v>
       </c>
       <c r="F100">
-        <v>771.6260842466022</v>
+        <v>645.57564645845</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>294.5</v>
+        <v>343.2</v>
       </c>
       <c r="B101">
-        <v>329081.5507868397</v>
+        <v>195092.0420956744</v>
       </c>
       <c r="C101">
-        <v>33837.91534430369</v>
+        <v>11318.32996609223</v>
       </c>
       <c r="D101">
-        <v>13026.25382191628</v>
+        <v>12242.76775986279</v>
       </c>
       <c r="E101">
-        <v>5965.004482457436</v>
+        <v>5269.773262886658</v>
       </c>
       <c r="F101">
-        <v>741.878713442577</v>
+        <v>417.0695570956684</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>296.8</v>
+        <v>345.9</v>
       </c>
       <c r="B102">
-        <v>315820.2103232066</v>
+        <v>189099.4799727972</v>
       </c>
       <c r="C102">
-        <v>43882.26364503001</v>
+        <v>9674.02356343543</v>
       </c>
       <c r="D102">
-        <v>12831.0775704774</v>
+        <v>11332.24831661402</v>
       </c>
       <c r="E102">
-        <v>5282.242063650187</v>
+        <v>7822.672209353202</v>
       </c>
       <c r="F102">
-        <v>742.1021931159389</v>
+        <v>569.0863364559134</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>299.1</v>
+        <v>348.1</v>
       </c>
       <c r="B103">
-        <v>296098.8698595734</v>
+        <v>206355.1700948972</v>
       </c>
       <c r="C103">
-        <v>39126.61194575625</v>
+        <v>12327.55167978915</v>
       </c>
       <c r="D103">
-        <v>13205.9013190385</v>
+        <v>11727.75099248539</v>
       </c>
       <c r="E103">
-        <v>5929.47964484294</v>
+        <v>7542.81209165927</v>
       </c>
       <c r="F103">
-        <v>642.3256727893016</v>
+        <v>470.7296381568532</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>301.7</v>
+        <v>350.3</v>
       </c>
       <c r="B104">
-        <v>268336.9197702489</v>
+        <v>200600.8602169972</v>
       </c>
       <c r="C104">
-        <v>41910.22306831643</v>
+        <v>9971.079796142862</v>
       </c>
       <c r="D104">
-        <v>11090.91946958586</v>
+        <v>13443.25366835677</v>
       </c>
       <c r="E104">
-        <v>4606.791693147797</v>
+        <v>10752.95197396534</v>
       </c>
       <c r="F104">
-        <v>732.5783019852765</v>
+        <v>452.3729398577932</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>303.9</v>
+        <v>352.5</v>
       </c>
       <c r="B105">
-        <v>248219.1158485129</v>
+        <v>213706.5503390972</v>
       </c>
       <c r="C105">
-        <v>41974.81709509807</v>
+        <v>11334.60791249661</v>
       </c>
       <c r="D105">
-        <v>12269.01175081822</v>
+        <v>11758.75634422815</v>
       </c>
       <c r="E105">
-        <v>6280.671118636512</v>
+        <v>13593.09185627141</v>
       </c>
       <c r="F105">
-        <v>712.7920651511013</v>
+        <v>264.0162415587331</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>306.2</v>
+        <v>354.8</v>
       </c>
       <c r="B106">
-        <v>233587.7753848797</v>
+        <v>246026.5900122019</v>
       </c>
       <c r="C106">
-        <v>47509.16539582435</v>
+        <v>15210.56912504821</v>
       </c>
       <c r="D106">
-        <v>11183.83549937933</v>
+        <v>14129.0545962755</v>
       </c>
       <c r="E106">
-        <v>3677.908699829271</v>
+        <v>16897.78355140958</v>
       </c>
       <c r="F106">
-        <v>453.0155448244632</v>
+        <v>635.7342387915339</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>308.5</v>
+        <v>357.3</v>
       </c>
       <c r="B107">
-        <v>221746.4349212465</v>
+        <v>241695.3287873155</v>
       </c>
       <c r="C107">
-        <v>47893.51369655062</v>
+        <v>12161.39652999563</v>
       </c>
       <c r="D107">
-        <v>9858.659247940428</v>
+        <v>13898.94400067479</v>
       </c>
       <c r="E107">
-        <v>5335.146281022024</v>
+        <v>20331.57887221194</v>
       </c>
       <c r="F107">
-        <v>503.2390244978259</v>
+        <v>117.6016270880563</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>310.8</v>
+        <v>359.6</v>
       </c>
       <c r="B108">
-        <v>214275.0944576134</v>
+        <v>260335.3684604201</v>
       </c>
       <c r="C108">
-        <v>47237.86199727691</v>
+        <v>11037.35774254724</v>
       </c>
       <c r="D108">
-        <v>10963.48299650155</v>
+        <v>13789.24225272213</v>
       </c>
       <c r="E108">
-        <v>4732.383862214776</v>
+        <v>24396.2705673501</v>
       </c>
       <c r="F108">
-        <v>593.4625041711877</v>
+        <v>609.3196243208579</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>313.4</v>
+        <v>361.9</v>
       </c>
       <c r="B109">
-        <v>205403.1443682889</v>
+        <v>291335.4081335246</v>
       </c>
       <c r="C109">
-        <v>48351.47311983705</v>
+        <v>12393.31895509888</v>
       </c>
       <c r="D109">
-        <v>8048.50114704889</v>
+        <v>15619.54050476949</v>
       </c>
       <c r="E109">
-        <v>5719.695910519632</v>
+        <v>31330.96226248828</v>
       </c>
       <c r="F109">
-        <v>663.7151333671627</v>
+        <v>631.0376215536578</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>315.3</v>
+        <v>364.2</v>
       </c>
       <c r="B110">
-        <v>188715.9500722441</v>
+        <v>297865.4478066292</v>
       </c>
       <c r="C110">
-        <v>44806.80432478483</v>
+        <v>12919.28016765051</v>
       </c>
       <c r="D110">
-        <v>6086.399026295017</v>
+        <v>16639.83875681683</v>
       </c>
       <c r="E110">
-        <v>4613.500868896244</v>
+        <v>39045.65395762643</v>
       </c>
       <c r="F110">
-        <v>513.8997470103752</v>
+        <v>112.7556187864595</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>317.9</v>
+        <v>366.5</v>
       </c>
       <c r="B111">
-        <v>196913.9999829196</v>
+        <v>333185.4874797337</v>
       </c>
       <c r="C111">
-        <v>42690.41544734497</v>
+        <v>10025.24138020212</v>
       </c>
       <c r="D111">
-        <v>8531.417176842373</v>
+        <v>15260.13700886417</v>
       </c>
       <c r="E111">
-        <v>5300.8129172011</v>
+        <v>49260.3456527646</v>
       </c>
       <c r="F111">
-        <v>594.1523762063501</v>
+        <v>534.4736160192604</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>320.2</v>
+        <v>368.8</v>
       </c>
       <c r="B112">
-        <v>177352.6595192864</v>
+        <v>373185.5271528383</v>
       </c>
       <c r="C112">
-        <v>35544.76374807125</v>
+        <v>10581.20259275373</v>
       </c>
       <c r="D112">
-        <v>7196.240925403476</v>
+        <v>22650.43526091152</v>
       </c>
       <c r="E112">
-        <v>4768.05049839386</v>
+        <v>66005.03734790278</v>
       </c>
       <c r="F112">
-        <v>504.3758558797119</v>
+        <v>656.191613252061</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>322.5</v>
+        <v>371.1</v>
       </c>
       <c r="B113">
-        <v>174511.3190556532</v>
+        <v>431665.5668259428</v>
       </c>
       <c r="C113">
-        <v>35049.11204879753</v>
+        <v>12077.16380530536</v>
       </c>
       <c r="D113">
-        <v>8751.064673964578</v>
+        <v>21280.73351295888</v>
       </c>
       <c r="E113">
-        <v>6515.288079586605</v>
+        <v>83779.72904304093</v>
       </c>
       <c r="F113">
-        <v>684.5993355530748</v>
+        <v>477.9096104848618</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>324.8</v>
+        <v>373.8</v>
       </c>
       <c r="B114">
-        <v>189039.9785920201</v>
+        <v>484103.0047030656</v>
       </c>
       <c r="C114">
-        <v>28923.46034952381</v>
+        <v>11782.85740264857</v>
       </c>
       <c r="D114">
-        <v>7865.888422525699</v>
+        <v>23380.21406971012</v>
       </c>
       <c r="E114">
-        <v>6032.525660779364</v>
+        <v>108192.6279895075</v>
       </c>
       <c r="F114">
-        <v>814.8228152264375</v>
+        <v>719.9263898451059</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="B115">
-        <v>175692.1746702839</v>
+        <v>559488.6948251656</v>
       </c>
       <c r="C115">
-        <v>23508.05437630548</v>
+        <v>14586.38551900228</v>
       </c>
       <c r="D115">
-        <v>9283.980703758065</v>
+        <v>29105.71674558149</v>
       </c>
       <c r="E115">
-        <v>6046.40508626808</v>
+        <v>138952.7678718135</v>
       </c>
       <c r="F115">
-        <v>565.0365783922622</v>
+        <v>661.5696915460467</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>329.6</v>
+        <v>378.3</v>
       </c>
       <c r="B116">
-        <v>187240.2245809595</v>
+        <v>659348.7344982702</v>
       </c>
       <c r="C116">
-        <v>24171.66549886559</v>
+        <v>12372.34673155392</v>
       </c>
       <c r="D116">
-        <v>7838.998854305399</v>
+        <v>31886.01499762884</v>
       </c>
       <c r="E116">
-        <v>6503.717134572928</v>
+        <v>171707.4595669517</v>
       </c>
       <c r="F116">
-        <v>445.289207588237</v>
+        <v>643.2876887788475</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>331.9</v>
+        <v>380.6</v>
       </c>
       <c r="B117">
-        <v>189258.8841173264</v>
+        <v>775888.7741713747</v>
       </c>
       <c r="C117">
-        <v>20246.0137995919</v>
+        <v>14628.30794410552</v>
       </c>
       <c r="D117">
-        <v>7613.822602866523</v>
+        <v>38296.31324967617</v>
       </c>
       <c r="E117">
-        <v>5730.954715765688</v>
+        <v>209422.1512620899</v>
       </c>
       <c r="F117">
-        <v>595.5126872615989</v>
+        <v>915.0056860116492</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>334.2</v>
+        <v>383.2</v>
       </c>
       <c r="B118">
-        <v>183447.5436536932</v>
+        <v>878241.8624974929</v>
       </c>
       <c r="C118">
-        <v>18770.36210031815</v>
+        <v>13411.56844525084</v>
       </c>
       <c r="D118">
-        <v>12398.64635142761</v>
+        <v>40940.99823025145</v>
       </c>
       <c r="E118">
-        <v>5998.19229695844</v>
+        <v>232010.4983957243</v>
       </c>
       <c r="F118">
-        <v>335.7361669349616</v>
+        <v>526.9477698400315</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>336.4</v>
+        <v>385.5</v>
       </c>
       <c r="B119">
-        <v>194339.7397319571</v>
+        <v>919431.9021705976</v>
       </c>
       <c r="C119">
-        <v>22014.95612709982</v>
+        <v>12897.52965780247</v>
       </c>
       <c r="D119">
-        <v>9276.738632659992</v>
+        <v>44471.29648229879</v>
       </c>
       <c r="E119">
-        <v>6982.071722447164</v>
+        <v>248135.1900908625</v>
       </c>
       <c r="F119">
-        <v>395.9499301007864</v>
+        <v>1018.665767072832</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>338.7</v>
+        <v>387.7</v>
       </c>
       <c r="B120">
-        <v>183408.3992683239</v>
+        <v>952357.5922926974</v>
       </c>
       <c r="C120">
-        <v>19059.3044278261</v>
+        <v>12541.05777415619</v>
       </c>
       <c r="D120">
-        <v>7351.562381221094</v>
+        <v>47276.79915817016</v>
       </c>
       <c r="E120">
-        <v>7289.309303639916</v>
+        <v>242955.3299731686</v>
       </c>
       <c r="F120">
-        <v>826.1734097741482</v>
+        <v>1000.309068773772</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>341.2</v>
+        <v>390</v>
       </c>
       <c r="B121">
-        <v>180419.9857208965</v>
+        <v>926757.6319658022</v>
       </c>
       <c r="C121">
-        <v>18373.16127644161</v>
+        <v>13387.01898670783</v>
       </c>
       <c r="D121">
-        <v>8329.849064439695</v>
+        <v>51717.09741021751</v>
       </c>
       <c r="E121">
-        <v>9133.263196240734</v>
+        <v>229810.0216683067</v>
       </c>
       <c r="F121">
-        <v>736.4163224625861</v>
+        <v>852.0270660065739</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>343.2</v>
+        <v>392.3</v>
       </c>
       <c r="B122">
-        <v>197349.2548829546</v>
+        <v>877717.6716389068</v>
       </c>
       <c r="C122">
-        <v>18058.24675533405</v>
+        <v>10672.98019925943</v>
       </c>
       <c r="D122">
-        <v>7964.478411014577</v>
+        <v>50877.39566226487</v>
       </c>
       <c r="E122">
-        <v>7460.426310321383</v>
+        <v>212214.7133634449</v>
       </c>
       <c r="F122">
-        <v>506.6106526133358</v>
+        <v>463.7450632393746</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>345.9</v>
+        <v>394.9</v>
       </c>
       <c r="B123">
-        <v>191143.7682517332</v>
+        <v>834030.759965025</v>
       </c>
       <c r="C123">
-        <v>16341.61215183881</v>
+        <v>9316.240700404742</v>
       </c>
       <c r="D123">
-        <v>6566.228028890673</v>
+        <v>55942.08064284013</v>
       </c>
       <c r="E123">
-        <v>9981.096514330276</v>
+        <v>195983.0604970793</v>
       </c>
       <c r="F123">
-        <v>656.8729983168478</v>
+        <v>705.6871470677588</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>348.1</v>
+        <v>397.2</v>
       </c>
       <c r="B124">
-        <v>208225.964329997</v>
+        <v>792790.7996381294</v>
       </c>
       <c r="C124">
-        <v>18936.20617862044</v>
+        <v>11892.20191295638</v>
       </c>
       <c r="D124">
-        <v>6564.320310123021</v>
+        <v>67192.37889488749</v>
       </c>
       <c r="E124">
-        <v>9674.975939818991</v>
+        <v>193827.7521922175</v>
       </c>
       <c r="F124">
-        <v>557.0867614826725</v>
+        <v>877.4051443005587</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>350.3</v>
+        <v>399.4</v>
       </c>
       <c r="B125">
-        <v>202298.1604082609</v>
+        <v>789026.4897602295</v>
       </c>
       <c r="C125">
-        <v>16520.80020540212</v>
+        <v>10905.7300293101</v>
       </c>
       <c r="D125">
-        <v>7882.412591355398</v>
+        <v>73737.88157075884</v>
       </c>
       <c r="E125">
-        <v>12858.85536530771</v>
+        <v>188767.8920745236</v>
       </c>
       <c r="F125">
-        <v>537.3005246484972</v>
+        <v>529.0484460014986</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>352.5</v>
+        <v>401.7</v>
       </c>
       <c r="B126">
-        <v>215230.3564865249</v>
+        <v>763436.529433334</v>
       </c>
       <c r="C126">
-        <v>17825.39423218376</v>
+        <v>15861.6912418617</v>
       </c>
       <c r="D126">
-        <v>5800.504872587764</v>
+        <v>88258.17982280621</v>
       </c>
       <c r="E126">
-        <v>15672.73479079643</v>
+        <v>189552.5837696618</v>
       </c>
       <c r="F126">
-        <v>347.514287814322</v>
+        <v>540.7664432343004</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>354.8</v>
+        <v>403.7</v>
       </c>
       <c r="B127">
-        <v>247369.0160228917</v>
+        <v>777373.520453425</v>
       </c>
       <c r="C127">
-        <v>21639.74253291007</v>
+        <v>15550.35316581964</v>
       </c>
       <c r="D127">
-        <v>7755.328621148867</v>
+        <v>97904.09134632564</v>
       </c>
       <c r="E127">
-        <v>18949.97237198919</v>
+        <v>178403.6200263036</v>
       </c>
       <c r="F127">
-        <v>717.7377674876848</v>
+        <v>802.2603538715186</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>357.3</v>
+        <v>406.3</v>
       </c>
       <c r="B128">
-        <v>242840.6024754644</v>
+        <v>760846.6087795433</v>
       </c>
       <c r="C128">
-        <v>18523.59938152557</v>
+        <v>17343.61366696495</v>
       </c>
       <c r="D128">
-        <v>7073.615304367468</v>
+        <v>111918.7763269009</v>
       </c>
       <c r="E128">
-        <v>22353.92626459001</v>
+        <v>170571.9671599381</v>
       </c>
       <c r="F128">
-        <v>197.9806801761216</v>
+        <v>614.2024376999018</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>359.6</v>
+        <v>408.5</v>
       </c>
       <c r="B129">
-        <v>261299.2620118311</v>
+        <v>730892.2989016431</v>
       </c>
       <c r="C129">
-        <v>17337.94768225185</v>
+        <v>15247.14178331869</v>
       </c>
       <c r="D129">
-        <v>6548.439052928585</v>
+        <v>126554.2790027723</v>
       </c>
       <c r="E129">
-        <v>26391.16384578275</v>
+        <v>162712.1070422441</v>
       </c>
       <c r="F129">
-        <v>688.2041598494843</v>
+        <v>895.8457394008417</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>361.9</v>
+        <v>411.1</v>
       </c>
       <c r="B130">
-        <v>292117.921548198</v>
+        <v>722255.3872277614</v>
       </c>
       <c r="C130">
-        <v>18632.29598297813</v>
+        <v>13160.40228446397</v>
       </c>
       <c r="D130">
-        <v>7963.262801489695</v>
+        <v>144128.9639833476</v>
       </c>
       <c r="E130">
-        <v>33298.40142697551</v>
+        <v>165990.4541758786</v>
       </c>
       <c r="F130">
-        <v>708.4276395228462</v>
+        <v>357.787823229225</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>364.2</v>
+        <v>413.4</v>
       </c>
       <c r="B131">
-        <v>298466.5810845649</v>
+        <v>738315.4269008661</v>
       </c>
       <c r="C131">
-        <v>19096.64428370441</v>
+        <v>12916.36349701561</v>
       </c>
       <c r="D131">
-        <v>8568.086550050797</v>
+        <v>163069.2622353949</v>
       </c>
       <c r="E131">
-        <v>40985.63900816828</v>
+        <v>180225.1458710168</v>
       </c>
       <c r="F131">
-        <v>188.651119196209</v>
+        <v>699.5058204620267</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>366.5</v>
+        <v>415.7</v>
       </c>
       <c r="B132">
-        <v>333605.2406209317</v>
+        <v>800205.4665739705</v>
       </c>
       <c r="C132">
-        <v>16140.99258443069</v>
+        <v>12272.32470956725</v>
       </c>
       <c r="D132">
-        <v>6772.910298611914</v>
+        <v>188369.5604874423</v>
       </c>
       <c r="E132">
-        <v>51172.87658936102</v>
+        <v>204089.837566155</v>
       </c>
       <c r="F132">
-        <v>608.8745988695708</v>
+        <v>811.2238176948265</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>368.8</v>
+        <v>417.9</v>
       </c>
       <c r="B133">
-        <v>373423.9001572984</v>
+        <v>893971.1566960706</v>
       </c>
       <c r="C133">
-        <v>16635.34088515697</v>
+        <v>13255.85282592096</v>
       </c>
       <c r="D133">
-        <v>13747.73404717303</v>
+        <v>209705.0631633136</v>
       </c>
       <c r="E133">
-        <v>67890.11417055376</v>
+        <v>236129.977448461</v>
       </c>
       <c r="F133">
-        <v>729.0980785429335</v>
+        <v>822.8671193957664</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>371.1</v>
+        <v>420.2</v>
       </c>
       <c r="B134">
-        <v>431722.5596936652</v>
+        <v>1011161.196369175</v>
       </c>
       <c r="C134">
-        <v>18069.68918588322</v>
+        <v>17571.81403847257</v>
       </c>
       <c r="D134">
-        <v>11962.55779573412</v>
+        <v>234785.3614153609</v>
       </c>
       <c r="E134">
-        <v>85637.35175174652</v>
+        <v>276404.6691435992</v>
       </c>
       <c r="F134">
-        <v>549.3215582162962</v>
+        <v>734.5851166285681</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>373.8</v>
+        <v>422.8</v>
       </c>
       <c r="B135">
-        <v>483947.0730624438</v>
+        <v>1166284.284695293</v>
       </c>
       <c r="C135">
-        <v>17703.054582388</v>
+        <v>14165.07453961788</v>
       </c>
       <c r="D135">
-        <v>13574.30741361023</v>
+        <v>260700.0463959363</v>
       </c>
       <c r="E135">
-        <v>110018.0219557554</v>
+        <v>353043.0162772336</v>
       </c>
       <c r="F135">
-        <v>789.5839039198083</v>
+        <v>796.5272004569514</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>376</v>
+        <v>425.1</v>
       </c>
       <c r="B136">
-        <v>559159.2691407074</v>
+        <v>1412824.324368398</v>
       </c>
       <c r="C136">
-        <v>20447.64860916964</v>
+        <v>16731.03575216951</v>
       </c>
       <c r="D136">
-        <v>18902.3996948426</v>
+        <v>282180.3446479836</v>
       </c>
       <c r="E136">
-        <v>140751.9013812441</v>
+        <v>304217.7079723718</v>
       </c>
       <c r="F136">
-        <v>729.7976670856331</v>
+        <v>1288.245197689753</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>378.3</v>
+        <v>427.3</v>
       </c>
       <c r="B137">
-        <v>658837.9286770744</v>
+        <v>1337230.014490498</v>
       </c>
       <c r="C137">
-        <v>18171.99690989595</v>
+        <v>14864.56386852323</v>
       </c>
       <c r="D137">
-        <v>21267.22344340368</v>
+        <v>294385.8473238549</v>
       </c>
       <c r="E137">
-        <v>173479.1389624369</v>
+        <v>242707.8478546779</v>
       </c>
       <c r="F137">
-        <v>710.0211467589958</v>
+        <v>969.8884993906929</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>380.6</v>
+        <v>429.6</v>
       </c>
       <c r="B138">
-        <v>775196.5882134413</v>
+        <v>1169840.054163603</v>
       </c>
       <c r="C138">
-        <v>20366.3452106222</v>
+        <v>14770.52508107484</v>
       </c>
       <c r="D138">
-        <v>27262.0471919648</v>
+        <v>293876.1455759023</v>
       </c>
       <c r="E138">
-        <v>211166.3765436297</v>
+        <v>111002.539549816</v>
       </c>
       <c r="F138">
-        <v>980.2446264323576</v>
+        <v>871.6064966234928</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>383.2</v>
+        <v>432.2</v>
       </c>
       <c r="B139">
-        <v>877344.6381241168</v>
+        <v>733943.1424897207</v>
       </c>
       <c r="C139">
-        <v>19079.95633318237</v>
+        <v>13783.78558222018</v>
       </c>
       <c r="D139">
-        <v>29437.06534251216</v>
+        <v>283730.8305564776</v>
       </c>
       <c r="E139">
-        <v>233723.6885919345</v>
+        <v>51700.88668345047</v>
       </c>
       <c r="F139">
-        <v>590.4972556283325</v>
+        <v>623.5485804518771</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>385.5</v>
+        <v>434.5</v>
       </c>
       <c r="B140">
-        <v>918353.2976604835</v>
+        <v>533553.1821628254</v>
       </c>
       <c r="C140">
-        <v>18504.30463390862</v>
+        <v>14219.74679477179</v>
       </c>
       <c r="D140">
-        <v>32551.88909107325</v>
+        <v>283421.1288085249</v>
       </c>
       <c r="E140">
-        <v>249820.9261731272</v>
+        <v>44645.57837858865</v>
       </c>
       <c r="F140">
-        <v>1080.720735301695</v>
+        <v>395.2665776846778</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>387.7</v>
+        <v>436.7</v>
       </c>
       <c r="B141">
-        <v>951105.4937387474</v>
+        <v>455648.8722849254</v>
       </c>
       <c r="C141">
-        <v>18088.89866069029</v>
+        <v>10743.2749111255</v>
       </c>
       <c r="D141">
-        <v>34959.98137230564</v>
+        <v>270296.6314843963</v>
       </c>
       <c r="E141">
-        <v>244614.8055986159</v>
+        <v>41815.71826089472</v>
       </c>
       <c r="F141">
-        <v>1060.93449846752</v>
+        <v>406.9098793856178</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="B142">
-        <v>925324.1532751144</v>
+        <v>423848.91195803</v>
       </c>
       <c r="C142">
-        <v>18873.24696141657</v>
+        <v>14109.23612367714</v>
       </c>
       <c r="D142">
-        <v>38984.80512086673</v>
+        <v>258006.9297364436</v>
       </c>
       <c r="E142">
-        <v>231442.0431798087</v>
+        <v>39570.40995603289</v>
       </c>
       <c r="F142">
-        <v>911.1579781408818</v>
+        <v>358.6278766184185</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>392.3</v>
+        <v>441.3</v>
       </c>
       <c r="B143">
-        <v>876102.812811481</v>
+        <v>396668.9516311345</v>
       </c>
       <c r="C143">
-        <v>16097.59526214286</v>
+        <v>12655.19733622874</v>
       </c>
       <c r="D143">
-        <v>37729.62886942785</v>
+        <v>238727.227988491</v>
       </c>
       <c r="E143">
-        <v>213819.2807610015</v>
+        <v>35685.10165117105</v>
       </c>
       <c r="F143">
-        <v>521.3814578142445</v>
+        <v>90.34587385121927</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>394.9</v>
+        <v>443.6</v>
       </c>
       <c r="B144">
-        <v>832210.8627221566</v>
+        <v>350958.991304239</v>
       </c>
       <c r="C144">
-        <v>14671.206384703</v>
+        <v>11851.15854878038</v>
       </c>
       <c r="D144">
-        <v>42324.6470199752</v>
+        <v>224387.5262405383</v>
       </c>
       <c r="E144">
-        <v>197556.5928093063</v>
+        <v>33869.79334630923</v>
       </c>
       <c r="F144">
-        <v>761.6340870102194</v>
+        <v>642.0638710840201</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>397.2</v>
+        <v>445.8</v>
       </c>
       <c r="B145">
-        <v>790789.5222585235</v>
+        <v>328124.681426339</v>
       </c>
       <c r="C145">
-        <v>17185.55468542928</v>
+        <v>8984.686665134097</v>
       </c>
       <c r="D145">
-        <v>53159.4707685363</v>
+        <v>201183.0289164097</v>
       </c>
       <c r="E145">
-        <v>195373.8303904991</v>
+        <v>31989.9332286153</v>
       </c>
       <c r="F145">
-        <v>931.8575666835814</v>
+        <v>403.70717278496</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>399.4</v>
+        <v>448.4</v>
       </c>
       <c r="B146">
-        <v>786851.7183367874</v>
+        <v>316207.7697524573</v>
       </c>
       <c r="C146">
-        <v>16140.14871221092</v>
+        <v>8907.947166279406</v>
       </c>
       <c r="D146">
-        <v>59307.56304976866</v>
+        <v>169687.713896985</v>
       </c>
       <c r="E146">
-        <v>190287.7098159878</v>
+        <v>28448.28036224974</v>
       </c>
       <c r="F146">
-        <v>582.0713298494061</v>
+        <v>395.6492566133442</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>401.7</v>
+        <v>450.7</v>
       </c>
       <c r="B147">
-        <v>761080.3778731544</v>
+        <v>294207.8094255618</v>
       </c>
       <c r="C147">
-        <v>21034.4970129372</v>
+        <v>9743.908378831042</v>
       </c>
       <c r="D147">
-        <v>73412.38679832978</v>
+        <v>147468.0121490323</v>
       </c>
       <c r="E147">
-        <v>191044.9473971805</v>
+        <v>27012.97205738792</v>
       </c>
       <c r="F147">
-        <v>592.2948095227688</v>
+        <v>467.3672538461449</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>403.7</v>
+        <v>452.9</v>
       </c>
       <c r="B148">
-        <v>774859.6470352124</v>
+        <v>278773.4995476619</v>
       </c>
       <c r="C148">
-        <v>20669.58249182962</v>
+        <v>11397.43649518476</v>
       </c>
       <c r="D148">
-        <v>82697.01614490467</v>
+        <v>126073.5148249037</v>
       </c>
       <c r="E148">
-        <v>179872.1105112612</v>
+        <v>23913.11193969399</v>
       </c>
       <c r="F148">
-        <v>852.4891396735186</v>
+        <v>629.0105555470849</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>406.3</v>
+        <v>455.2</v>
       </c>
       <c r="B149">
-        <v>758127.6969458879</v>
+        <v>254863.5392207665</v>
       </c>
       <c r="C149">
-        <v>22393.19361438976</v>
+        <v>7843.397707736367</v>
       </c>
       <c r="D149">
-        <v>96242.03429545199</v>
+        <v>111073.813076951</v>
       </c>
       <c r="E149">
-        <v>172009.4225595661</v>
+        <v>21117.80363483216</v>
       </c>
       <c r="F149">
-        <v>662.7417688694934</v>
+        <v>400.7285527798856</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>408.5</v>
+        <v>457.5</v>
       </c>
       <c r="B150">
-        <v>727999.8930241518</v>
+        <v>250613.578893871</v>
       </c>
       <c r="C150">
-        <v>20237.78764117143</v>
+        <v>10229.358920288</v>
       </c>
       <c r="D150">
-        <v>110480.1265766844</v>
+        <v>99074.11132899839</v>
       </c>
       <c r="E150">
-        <v>164123.3019850548</v>
+        <v>19362.49532997032</v>
       </c>
       <c r="F150">
-        <v>942.9555320353181</v>
+        <v>92.44655001268637</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>411.1</v>
+        <v>459.8</v>
       </c>
       <c r="B151">
-        <v>719157.9429348274</v>
+        <v>227483.6185669756</v>
       </c>
       <c r="C151">
-        <v>18081.39876373154</v>
+        <v>10115.32013283961</v>
       </c>
       <c r="D151">
-        <v>127585.1447272317</v>
+        <v>92544.40958104574</v>
       </c>
       <c r="E151">
-        <v>167370.6140333596</v>
+        <v>17797.18702510848</v>
       </c>
       <c r="F151">
-        <v>403.2081612312929</v>
+        <v>694.1645472454871</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>413.4</v>
+        <v>462.4</v>
       </c>
       <c r="B152">
-        <v>735036.602471194</v>
+        <v>223546.7068930938</v>
       </c>
       <c r="C152">
-        <v>17775.74706445785</v>
+        <v>8118.580633984922</v>
       </c>
       <c r="D152">
-        <v>146109.9684757928</v>
+        <v>84189.09456162099</v>
       </c>
       <c r="E152">
-        <v>181577.8516145524</v>
+        <v>16495.53415874293</v>
       </c>
       <c r="F152">
-        <v>743.4316409046548</v>
+        <v>496.1066310738713</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>415.7</v>
+        <v>464.7</v>
       </c>
       <c r="B153">
-        <v>796745.2620075609</v>
+        <v>195396.7465661983</v>
       </c>
       <c r="C153">
-        <v>17070.0953651841</v>
+        <v>11694.54184653656</v>
       </c>
       <c r="D153">
-        <v>170994.7922243539</v>
+        <v>83369.39281366835</v>
       </c>
       <c r="E153">
-        <v>205415.0891957452</v>
+        <v>15540.2258538811</v>
       </c>
       <c r="F153">
-        <v>853.6551205780177</v>
+        <v>817.8246283066721</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>417.9</v>
+        <v>466.9</v>
       </c>
       <c r="B154">
-        <v>890337.4580858249</v>
+        <v>185672.4366882983</v>
       </c>
       <c r="C154">
-        <v>17994.68939196577</v>
+        <v>11378.06996289027</v>
       </c>
       <c r="D154">
-        <v>191932.8845055863</v>
+        <v>81204.89548953972</v>
       </c>
       <c r="E154">
-        <v>237428.9686212338</v>
+        <v>14610.36573618718</v>
       </c>
       <c r="F154">
-        <v>863.8688837438424</v>
+        <v>459.467930007612</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>420.2</v>
+        <v>469.2</v>
       </c>
       <c r="B155">
-        <v>1007346.117622192</v>
+        <v>174842.476361403</v>
       </c>
       <c r="C155">
-        <v>22249.03769269205</v>
+        <v>11164.03117544191</v>
       </c>
       <c r="D155">
-        <v>216597.7082541474</v>
+        <v>80555.19374158706</v>
       </c>
       <c r="E155">
-        <v>277676.2062024265</v>
+        <v>11195.05743132533</v>
       </c>
       <c r="F155">
-        <v>774.0923634172043</v>
+        <v>531.1859272404129</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>422.8</v>
+        <v>471.5</v>
       </c>
       <c r="B156">
-        <v>1162264.167532868</v>
+        <v>160562.5160345075</v>
       </c>
       <c r="C156">
-        <v>18772.6488152522</v>
+        <v>7839.992387993516</v>
       </c>
       <c r="D156">
-        <v>242042.7264046947</v>
+        <v>77725.49199363444</v>
       </c>
       <c r="E156">
-        <v>354283.5182507314</v>
+        <v>11839.7491264635</v>
       </c>
       <c r="F156">
-        <v>834.3449926131791</v>
+        <v>662.9039244732136</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>425.1</v>
+        <v>474.1</v>
       </c>
       <c r="B157">
-        <v>1408622.827069234</v>
+        <v>141855.6043606257</v>
       </c>
       <c r="C157">
-        <v>21276.99711597848</v>
+        <v>9613.252889138825</v>
       </c>
       <c r="D157">
-        <v>263107.5501532558</v>
+        <v>73920.17697420968</v>
       </c>
       <c r="E157">
-        <v>305430.7558319242</v>
+        <v>10638.09626009795</v>
       </c>
       <c r="F157">
-        <v>1324.568472286541</v>
+        <v>214.8460083015977</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>427.3</v>
+        <v>476.4</v>
       </c>
       <c r="B158">
-        <v>1332855.023147498</v>
+        <v>144885.6440337303</v>
       </c>
       <c r="C158">
-        <v>19351.59114276012</v>
+        <v>5999.214101690464</v>
       </c>
       <c r="D158">
-        <v>274915.6424344882</v>
+        <v>77600.47522625703</v>
       </c>
       <c r="E158">
-        <v>243894.6352574129</v>
+        <v>10862.78795523613</v>
       </c>
       <c r="F158">
-        <v>1004.782235452366</v>
+        <v>336.5640055343985</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>429.6</v>
+        <v>478.7</v>
       </c>
       <c r="B159">
-        <v>1165283.682683865</v>
+        <v>152885.6837068348</v>
       </c>
       <c r="C159">
-        <v>19195.9394434864</v>
+        <v>11975.17531424207</v>
       </c>
       <c r="D159">
-        <v>273990.4661830494</v>
+        <v>78480.77347830439</v>
       </c>
       <c r="E159">
-        <v>112161.8728386057</v>
+        <v>10057.47965037428</v>
       </c>
       <c r="F159">
-        <v>905.0057151257294</v>
+        <v>318.2820027671992</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>432.2</v>
+        <v>481</v>
       </c>
       <c r="B160">
-        <v>729181.7325945405</v>
+        <v>131655.7233799394</v>
       </c>
       <c r="C160">
-        <v>18139.55056604654</v>
+        <v>8181.136526793678</v>
       </c>
       <c r="D160">
-        <v>263375.4843335967</v>
+        <v>74471.07173035172</v>
       </c>
       <c r="E160">
-        <v>52829.18488691055</v>
+        <v>9062.171345512455</v>
       </c>
       <c r="F160">
-        <v>655.2583443217034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>434.5</v>
+        <v>482.9</v>
       </c>
       <c r="B161">
-        <v>528610.3921309072</v>
+        <v>126328.3648490258</v>
       </c>
       <c r="C161">
-        <v>18513.89886677285</v>
+        <v>9457.365354553724</v>
       </c>
       <c r="D161">
-        <v>262650.3080821577</v>
+        <v>74432.18767769518</v>
       </c>
       <c r="E161">
-        <v>45746.4224681033</v>
+        <v>10128.65578932225</v>
       </c>
       <c r="F161">
-        <v>425.4818239950661</v>
+        <v>841.4192151053567</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>436.7</v>
+        <v>485.5</v>
       </c>
       <c r="B162">
-        <v>450532.5882091713</v>
+        <v>122531.453175144</v>
       </c>
       <c r="C162">
-        <v>14978.49289355449</v>
+        <v>7850.625855699029</v>
       </c>
       <c r="D162">
-        <v>249128.4003633901</v>
+        <v>74306.87265827044</v>
       </c>
       <c r="E162">
-        <v>42890.30189359202</v>
+        <v>9077.00292295669</v>
       </c>
       <c r="F162">
-        <v>435.6955871608908</v>
+        <v>213.3612989337407</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>439</v>
+        <v>487.8</v>
       </c>
       <c r="B163">
-        <v>418551.2477455381</v>
+        <v>125791.4928482486</v>
       </c>
       <c r="C163">
-        <v>18282.84119428077</v>
+        <v>8776.587068250665</v>
       </c>
       <c r="D163">
-        <v>236423.2241119512</v>
+        <v>72797.17091031781</v>
       </c>
       <c r="E163">
-        <v>40617.53947478477</v>
+        <v>7841.694618094853</v>
       </c>
       <c r="F163">
-        <v>385.9190668342535</v>
+        <v>415.0792961665415</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>441.3</v>
+        <v>490.4</v>
       </c>
       <c r="B164">
-        <v>391189.9072819048</v>
+        <v>123964.5811743668</v>
       </c>
       <c r="C164">
-        <v>16767.18949500702</v>
+        <v>9219.847569395977</v>
       </c>
       <c r="D164">
-        <v>216728.0478605124</v>
+        <v>73661.85589089306</v>
       </c>
       <c r="E164">
-        <v>36704.77705597752</v>
+        <v>7170.041751729304</v>
       </c>
       <c r="F164">
-        <v>116.1425465076154</v>
+        <v>847.0213799949247</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>443.6</v>
+        <v>492.7</v>
       </c>
       <c r="B165">
-        <v>345298.5668182718</v>
+        <v>122264.6208474713</v>
       </c>
       <c r="C165">
-        <v>15901.53779573333</v>
+        <v>9005.808781947584</v>
       </c>
       <c r="D165">
-        <v>201972.8716090735</v>
+        <v>71722.15414294042</v>
       </c>
       <c r="E165">
-        <v>34862.01463717029</v>
+        <v>8354.733446867476</v>
       </c>
       <c r="F165">
-        <v>666.3660261809782</v>
+        <v>648.7393772277264</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>445.8</v>
+        <v>495</v>
       </c>
       <c r="B166">
-        <v>322290.7628965356</v>
+        <v>118504.660520576</v>
       </c>
       <c r="C166">
-        <v>12976.13182251497</v>
+        <v>6101.76999449922</v>
       </c>
       <c r="D166">
-        <v>178370.9638903059</v>
+        <v>71352.45239498776</v>
       </c>
       <c r="E166">
-        <v>32955.89406265899</v>
+        <v>5859.42514200564</v>
       </c>
       <c r="F166">
-        <v>426.5797893468028</v>
+        <v>210.4573744605271</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>448.4</v>
+        <v>497.2</v>
       </c>
       <c r="B167">
-        <v>310168.8128072111</v>
+        <v>112160.350642676</v>
       </c>
       <c r="C167">
-        <v>12829.74294507511</v>
+        <v>5815.298110852938</v>
       </c>
       <c r="D167">
-        <v>146405.9820408532</v>
+        <v>68027.95507085914</v>
       </c>
       <c r="E167">
-        <v>29383.20611096385</v>
+        <v>5739.565024311717</v>
       </c>
       <c r="F167">
-        <v>416.8324185427778</v>
+        <v>392.1006761614671</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>450.7</v>
+        <v>499.5</v>
       </c>
       <c r="B168">
-        <v>287987.472343578</v>
+        <v>103920.3903157805</v>
       </c>
       <c r="C168">
-        <v>13604.09124580139</v>
+        <v>5691.259323404545</v>
       </c>
       <c r="D168">
-        <v>123770.8057894143</v>
+        <v>68928.25332290649</v>
       </c>
       <c r="E168">
-        <v>27920.4436921566</v>
+        <v>6484.256719449874</v>
       </c>
       <c r="F168">
-        <v>487.0558982161397</v>
+        <v>343.8186733942679</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>452.9</v>
+        <v>502.1</v>
       </c>
       <c r="B169">
-        <v>272379.6684218418</v>
+        <v>114643.4786418988</v>
       </c>
       <c r="C169">
-        <v>15198.68527258306</v>
+        <v>6394.519824549854</v>
       </c>
       <c r="D169">
-        <v>101978.8980706467</v>
+        <v>71772.93830348176</v>
       </c>
       <c r="E169">
-        <v>24794.32311764532</v>
+        <v>6012.603853084323</v>
       </c>
       <c r="F169">
-        <v>647.2696613819644</v>
+        <v>815.7607572226511</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>455.2</v>
+        <v>504.3</v>
       </c>
       <c r="B170">
-        <v>248288.3279582087</v>
+        <v>107799.1687639988</v>
       </c>
       <c r="C170">
-        <v>11583.03357330934</v>
+        <v>8168.047940903598</v>
       </c>
       <c r="D170">
-        <v>86563.72181920779</v>
+        <v>68248.44097935311</v>
       </c>
       <c r="E170">
-        <v>21971.56069883808</v>
+        <v>4132.743735390401</v>
       </c>
       <c r="F170">
-        <v>417.4931410553271</v>
+        <v>697.404058923591</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>457.5</v>
+        <v>506.6</v>
       </c>
       <c r="B171">
-        <v>243856.9874945755</v>
+        <v>112939.2084371033</v>
       </c>
       <c r="C171">
-        <v>13907.38187403559</v>
+        <v>5784.009153455205</v>
       </c>
       <c r="D171">
-        <v>74148.5455677689</v>
+        <v>71308.73923140048</v>
       </c>
       <c r="E171">
-        <v>20188.79828003083</v>
+        <v>5217.435430528565</v>
       </c>
       <c r="F171">
-        <v>107.716620728689</v>
+        <v>589.1220561563928</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>459.8</v>
+        <v>508.9</v>
       </c>
       <c r="B172">
-        <v>220545.6470309423</v>
+        <v>98019.24811020785</v>
       </c>
       <c r="C172">
-        <v>13731.7301747619</v>
+        <v>10979.97036600682</v>
       </c>
       <c r="D172">
-        <v>67203.36931632999</v>
+        <v>69159.03748344781</v>
       </c>
       <c r="E172">
-        <v>18596.03586122358</v>
+        <v>5852.127125666738</v>
       </c>
       <c r="F172">
-        <v>707.9401004020517</v>
+        <v>630.8400533891927</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>462.4</v>
+        <v>511.1</v>
       </c>
       <c r="B173">
-        <v>216403.6969416178</v>
+        <v>92404.93823230788</v>
       </c>
       <c r="C173">
-        <v>11665.34129732202</v>
+        <v>8313.49848236053</v>
       </c>
       <c r="D173">
-        <v>58378.38746687734</v>
+        <v>68384.54015931921</v>
       </c>
       <c r="E173">
-        <v>17263.34790952843</v>
+        <v>3892.267007972807</v>
       </c>
       <c r="F173">
-        <v>508.1927295980266</v>
+        <v>692.4833550901326</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>464.7</v>
+        <v>513.4</v>
       </c>
       <c r="B174">
-        <v>188072.3564779846</v>
+        <v>94174.97790541252</v>
       </c>
       <c r="C174">
-        <v>15179.68959804833</v>
+        <v>5129.459694912195</v>
       </c>
       <c r="D174">
-        <v>57143.21121543846</v>
+        <v>67374.83841136654</v>
       </c>
       <c r="E174">
-        <v>16280.58549072119</v>
+        <v>4556.958703110972</v>
       </c>
       <c r="F174">
-        <v>828.4162092713884</v>
+        <v>374.2013523229342</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>466.9</v>
+        <v>516</v>
       </c>
       <c r="B175">
-        <v>178174.5525562486</v>
+        <v>94798.06623153074</v>
       </c>
       <c r="C175">
-        <v>14804.28362482997</v>
+        <v>6832.720196057475</v>
       </c>
       <c r="D175">
-        <v>54581.30349667083</v>
+        <v>65489.52339194181</v>
       </c>
       <c r="E175">
-        <v>15324.46491620991</v>
+        <v>3645.30583674542</v>
       </c>
       <c r="F175">
-        <v>468.6299724372132</v>
+        <v>156.1434361513175</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>469.2</v>
+        <v>518.3</v>
       </c>
       <c r="B176">
-        <v>167163.2120926155</v>
+        <v>93768.10590463527</v>
       </c>
       <c r="C176">
-        <v>14528.63192555625</v>
+        <v>5818.681408609114</v>
       </c>
       <c r="D176">
-        <v>53516.12724523195</v>
+        <v>67889.82164398915</v>
       </c>
       <c r="E176">
-        <v>11881.70249740266</v>
+        <v>4079.997531883586</v>
       </c>
       <c r="F176">
-        <v>538.853452110576</v>
+        <v>417.8614333841192</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>471.5</v>
+        <v>520.6</v>
       </c>
       <c r="B177">
-        <v>152701.8716289823</v>
+        <v>87388.14557773982</v>
       </c>
       <c r="C177">
-        <v>11142.98022628253</v>
+        <v>9694.642621160718</v>
       </c>
       <c r="D177">
-        <v>50270.95099379303</v>
+        <v>64380.11989603651</v>
       </c>
       <c r="E177">
-        <v>12498.94007859541</v>
+        <v>3794.689227021757</v>
       </c>
       <c r="F177">
-        <v>669.0769317839378</v>
+        <v>839.5794306169189</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>474.1</v>
+        <v>522.8</v>
       </c>
       <c r="B178">
-        <v>133789.9215396578</v>
+        <v>87963.83569983984</v>
       </c>
       <c r="C178">
-        <v>12846.59134884267</v>
+        <v>7448.170737514469</v>
       </c>
       <c r="D178">
-        <v>45995.96914434039</v>
+        <v>64255.62257190789</v>
       </c>
       <c r="E178">
-        <v>11266.25212690026</v>
+        <v>4144.829109327828</v>
       </c>
       <c r="F178">
-        <v>219.3295609799126</v>
+        <v>471.2227323178599</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>476.4</v>
+        <v>525.1</v>
       </c>
       <c r="B179">
-        <v>136638.5810760246</v>
+        <v>85863.87537294439</v>
       </c>
       <c r="C179">
-        <v>9170.939649568951</v>
+        <v>6374.131950066072</v>
       </c>
       <c r="D179">
-        <v>49260.79289290151</v>
+        <v>63045.92082395524</v>
       </c>
       <c r="E179">
-        <v>11463.48970809302</v>
+        <v>2649.520804465991</v>
       </c>
       <c r="F179">
-        <v>339.5530406532754</v>
+        <v>362.9407295506606</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>478.7</v>
+        <v>527.7</v>
       </c>
       <c r="B180">
-        <v>144457.2406123914</v>
+        <v>79436.9636990626</v>
       </c>
       <c r="C180">
-        <v>15085.28795029523</v>
+        <v>6987.392451211381</v>
       </c>
       <c r="D180">
-        <v>49725.6166414626</v>
+        <v>61670.6058045305</v>
       </c>
       <c r="E180">
-        <v>10630.72728928577</v>
+        <v>4167.86793810044</v>
       </c>
       <c r="F180">
-        <v>319.7765203266373</v>
+        <v>474.8828133790438</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>481</v>
+        <v>529.9</v>
       </c>
       <c r="B181">
-        <v>123045.9001487583</v>
+        <v>76952.6538211626</v>
       </c>
       <c r="C181">
-        <v>11229.63625102148</v>
+        <v>4400.920567565128</v>
       </c>
       <c r="D181">
-        <v>45300.44039002372</v>
+        <v>62696.10848040186</v>
       </c>
       <c r="E181">
-        <v>9607.964870478527</v>
+        <v>2688.007820406518</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>206.5261150799838</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>482.9</v>
+        <v>532.2</v>
       </c>
       <c r="B182">
-        <v>117568.7058527135</v>
+        <v>74112.69349426717</v>
       </c>
       <c r="C182">
-        <v>12454.96745596929</v>
+        <v>6616.881780116732</v>
       </c>
       <c r="D182">
-        <v>44918.33826926985</v>
+        <v>61946.40673244921</v>
       </c>
       <c r="E182">
-        <v>10651.76982885515</v>
+        <v>3652.699515544675</v>
       </c>
       <c r="F182">
-        <v>840.1846136432126</v>
+        <v>428.2441123127854</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>485.5</v>
+        <v>534.4</v>
       </c>
       <c r="B183">
-        <v>113566.755763389</v>
+        <v>73378.38361636728</v>
       </c>
       <c r="C183">
-        <v>10778.57857852943</v>
+        <v>4510.409896470454</v>
       </c>
       <c r="D183">
-        <v>44323.3564198172</v>
+        <v>62181.90940832061</v>
       </c>
       <c r="E183">
-        <v>9569.081877159995</v>
+        <v>2882.839397850753</v>
       </c>
       <c r="F183">
-        <v>210.4372428391875</v>
+        <v>249.8874140137254</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>487.8</v>
+        <v>536.7</v>
       </c>
       <c r="B184">
-        <v>116645.4152997558</v>
+        <v>73578.42328947184</v>
       </c>
       <c r="C184">
-        <v>11642.92687925571</v>
+        <v>7096.371109022057</v>
       </c>
       <c r="D184">
-        <v>42398.18016837829</v>
+        <v>58722.20766036795</v>
       </c>
       <c r="E184">
-        <v>8306.319458352755</v>
+        <v>1817.531092988916</v>
       </c>
       <c r="F184">
-        <v>410.6607225125493</v>
+        <v>341.6054112465262</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>490.4</v>
+        <v>539.3</v>
       </c>
       <c r="B185">
-        <v>114613.4652104314</v>
+        <v>71931.51161559003</v>
       </c>
       <c r="C185">
-        <v>12016.53800181585</v>
+        <v>8959.631610167398</v>
       </c>
       <c r="D185">
-        <v>42793.19831892564</v>
+        <v>59046.89264094319</v>
       </c>
       <c r="E185">
-        <v>7603.631506657611</v>
+        <v>3165.878226623367</v>
       </c>
       <c r="F185">
-        <v>840.9133517085243</v>
+        <v>393.5474950749095</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>492.7</v>
+        <v>541.6</v>
       </c>
       <c r="B186">
-        <v>112732.1247467982</v>
+        <v>63541.55128869459</v>
       </c>
       <c r="C186">
-        <v>11740.88630254213</v>
+        <v>6525.592822719005</v>
       </c>
       <c r="D186">
-        <v>40438.02206748676</v>
+        <v>56287.19089299056</v>
       </c>
       <c r="E186">
-        <v>8760.869087850355</v>
+        <v>1950.569921761537</v>
       </c>
       <c r="F186">
-        <v>641.1368313818861</v>
+        <v>375.2654923077102</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>495</v>
+        <v>543.8</v>
       </c>
       <c r="B187">
-        <v>108790.7842831651</v>
+        <v>66667.2414107946</v>
       </c>
       <c r="C187">
-        <v>8775.234603268415</v>
+        <v>6219.120939072724</v>
       </c>
       <c r="D187">
-        <v>39652.84581604785</v>
+        <v>55632.69356886194</v>
       </c>
       <c r="E187">
-        <v>6238.106669043115</v>
+        <v>2570.709804067608</v>
       </c>
       <c r="F187">
-        <v>201.3603110552488</v>
+        <v>346.9087940086502</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>497.2</v>
+        <v>546.1</v>
       </c>
       <c r="B188">
-        <v>102272.980361429</v>
+        <v>67247.28108389914</v>
       </c>
       <c r="C188">
-        <v>8429.828630050055</v>
+        <v>5835.082151624327</v>
       </c>
       <c r="D188">
-        <v>35930.93809728022</v>
+        <v>57962.99182090929</v>
       </c>
       <c r="E188">
-        <v>6091.986094531838</v>
+        <v>3355.401499205772</v>
       </c>
       <c r="F188">
-        <v>381.5740742210736</v>
+        <v>478.6267912414509</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>499.5</v>
+        <v>548.4</v>
       </c>
       <c r="B189">
-        <v>93851.6398977958</v>
+        <v>58267.32075700369</v>
       </c>
       <c r="C189">
-        <v>8244.176930776364</v>
+        <v>5031.043364175996</v>
       </c>
       <c r="D189">
-        <v>36415.76184584133</v>
+        <v>55133.29007295662</v>
       </c>
       <c r="E189">
-        <v>6809.223675724583</v>
+        <v>1530.093194343937</v>
       </c>
       <c r="F189">
-        <v>331.7975538944363</v>
+        <v>300.3447884742517</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>502.1</v>
+        <v>550.6</v>
       </c>
       <c r="B190">
-        <v>104369.6898084713</v>
+        <v>41343.01087910371</v>
       </c>
       <c r="C190">
-        <v>8877.788053336477</v>
+        <v>9444.57148052971</v>
       </c>
       <c r="D190">
-        <v>38790.77999638869</v>
+        <v>56298.79274882801</v>
       </c>
       <c r="E190">
-        <v>6306.535724029438</v>
+        <v>2280.233076650006</v>
       </c>
       <c r="F190">
-        <v>802.0501830904111</v>
+        <v>51.98809017519255</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>504.3</v>
+        <v>553.2</v>
       </c>
       <c r="B191">
-        <v>97351.88588673517</v>
+        <v>53976.09920522192</v>
       </c>
       <c r="C191">
-        <v>10592.38208011815</v>
+        <v>4987.83198167499</v>
       </c>
       <c r="D191">
-        <v>34868.87227762105</v>
+        <v>54723.47772940328</v>
       </c>
       <c r="E191">
-        <v>4400.415149518161</v>
+        <v>1388.580210284455</v>
       </c>
       <c r="F191">
-        <v>682.263946256236</v>
+        <v>463.9301740035757</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>506.6</v>
+        <v>555.5</v>
       </c>
       <c r="B192">
-        <v>102310.5454231021</v>
+        <v>59096.13887832657</v>
       </c>
       <c r="C192">
-        <v>8146.730380844427</v>
+        <v>8833.793194226626</v>
       </c>
       <c r="D192">
-        <v>37513.69602618214</v>
+        <v>56953.77598145061</v>
       </c>
       <c r="E192">
-        <v>5457.652730710906</v>
+        <v>3813.271905422627</v>
       </c>
       <c r="F192">
-        <v>572.4874259295977</v>
+        <v>425.6481712363765</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>508.9</v>
+        <v>557.7</v>
       </c>
       <c r="B193">
-        <v>87209.20495946886</v>
+        <v>48391.8290004266</v>
       </c>
       <c r="C193">
-        <v>13281.07868157071</v>
+        <v>5317.321310580341</v>
       </c>
       <c r="D193">
-        <v>34948.51977474326</v>
+        <v>53989.27865732199</v>
       </c>
       <c r="E193">
-        <v>6064.890311903667</v>
+        <v>3103.411787728697</v>
       </c>
       <c r="F193">
-        <v>612.7109056029606</v>
+        <v>607.2914729373165</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>511.1</v>
+        <v>560</v>
       </c>
       <c r="B194">
-        <v>81421.40103773281</v>
+        <v>53881.86867353113</v>
       </c>
       <c r="C194">
-        <v>10555.67270835238</v>
+        <v>7083.28252313198</v>
       </c>
       <c r="D194">
-        <v>33776.61205597562</v>
+        <v>53949.57690936932</v>
       </c>
       <c r="E194">
-        <v>4078.769737392389</v>
+        <v>3038.103482866869</v>
       </c>
       <c r="F194">
-        <v>672.9246687687853</v>
+        <v>599.0094701701182</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>513.4</v>
+        <v>562.2</v>
       </c>
       <c r="B195">
-        <v>83010.0605740996</v>
+        <v>51367.55879563115</v>
       </c>
       <c r="C195">
-        <v>7310.021009078628</v>
+        <v>3026.810639485695</v>
       </c>
       <c r="D195">
-        <v>32351.43580453675</v>
+        <v>54225.07958524072</v>
       </c>
       <c r="E195">
-        <v>4716.007318585142</v>
+        <v>1778.243365172939</v>
       </c>
       <c r="F195">
-        <v>353.1481484421471</v>
+        <v>370.6527718710572</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>516</v>
+        <v>564.8</v>
       </c>
       <c r="B196">
-        <v>83428.11048477514</v>
+        <v>56680.64712174937</v>
       </c>
       <c r="C196">
-        <v>8943.632131638798</v>
+        <v>8130.071140631037</v>
       </c>
       <c r="D196">
-        <v>29996.4539550841</v>
+        <v>52309.76456581597</v>
       </c>
       <c r="E196">
-        <v>3773.31936688999</v>
+        <v>2806.590498807388</v>
       </c>
       <c r="F196">
-        <v>133.400777638122</v>
+        <v>222.5948556994413</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>518.3</v>
+        <v>567.1</v>
       </c>
       <c r="B197">
-        <v>82216.77002114193</v>
+        <v>41190.6867948539</v>
       </c>
       <c r="C197">
-        <v>7867.980432365053</v>
+        <v>1556.032353182643</v>
       </c>
       <c r="D197">
-        <v>31981.27770364519</v>
+        <v>53190.06281786333</v>
       </c>
       <c r="E197">
-        <v>4180.55694808275</v>
+        <v>1511.282193945552</v>
       </c>
       <c r="F197">
-        <v>393.6242573114848</v>
+        <v>564.3128529322412</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>520.6</v>
+        <v>569</v>
       </c>
       <c r="B198">
-        <v>75655.42955750883</v>
+        <v>54113.32826394025</v>
       </c>
       <c r="C198">
-        <v>11682.32873309133</v>
+        <v>6912.261180942656</v>
       </c>
       <c r="D198">
-        <v>28056.10145220631</v>
+        <v>54461.1787652068</v>
       </c>
       <c r="E198">
-        <v>3867.794529275495</v>
+        <v>1547.766637755338</v>
       </c>
       <c r="F198">
-        <v>813.8477369848466</v>
+        <v>525.7320680375997</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>522.8</v>
+        <v>571.6</v>
       </c>
       <c r="B199">
-        <v>76057.62563577277</v>
+        <v>59556.41659005846</v>
       </c>
       <c r="C199">
-        <v>9376.922759873003</v>
+        <v>6455.521682087965</v>
       </c>
       <c r="D199">
-        <v>27534.19373343867</v>
+        <v>54885.86374578206</v>
       </c>
       <c r="E199">
-        <v>4191.673954764218</v>
+        <v>3506.113771389787</v>
       </c>
       <c r="F199">
-        <v>444.0615001506715</v>
+        <v>697.6741518659828</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>525.1</v>
+        <v>573.9</v>
       </c>
       <c r="B200">
-        <v>73776.28517213956</v>
+        <v>52046.45626316311</v>
       </c>
       <c r="C200">
-        <v>8241.27106059928</v>
+        <v>7081.482894639605</v>
       </c>
       <c r="D200">
-        <v>25909.01748199979</v>
+        <v>54396.16199782942</v>
       </c>
       <c r="E200">
-        <v>2668.91153595697</v>
+        <v>2470.80546652796</v>
       </c>
       <c r="F200">
-        <v>334.2849798240341</v>
+        <v>229.3921490987836</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>527.7</v>
+        <v>576.1</v>
       </c>
       <c r="B201">
-        <v>67144.33508281512</v>
+        <v>54562.14638526314</v>
       </c>
       <c r="C201">
-        <v>8784.882183159392</v>
+        <v>6805.011010993319</v>
       </c>
       <c r="D201">
-        <v>24064.03563254711</v>
+        <v>53241.6646737008</v>
       </c>
       <c r="E201">
-        <v>4156.223584261817</v>
+        <v>2510.945348834029</v>
       </c>
       <c r="F201">
-        <v>444.537609020009</v>
+        <v>531.0354507997245</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>529.9</v>
+        <v>578.4</v>
       </c>
       <c r="B202">
-        <v>64486.53116107905</v>
+        <v>50272.18605836768</v>
       </c>
       <c r="C202">
-        <v>6139.476209941065</v>
+        <v>5660.972223544959</v>
       </c>
       <c r="D202">
-        <v>24692.12791377951</v>
+        <v>53581.96292574813</v>
       </c>
       <c r="E202">
-        <v>2650.103009750542</v>
+        <v>2615.637043972201</v>
       </c>
       <c r="F202">
-        <v>174.7513721858338</v>
+        <v>612.7534480325244</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>532.2</v>
+        <v>581</v>
       </c>
       <c r="B203">
-        <v>61465.19069744585</v>
+        <v>51125.27438448589</v>
       </c>
       <c r="C203">
-        <v>8293.824510667342</v>
+        <v>7544.232724690235</v>
       </c>
       <c r="D203">
-        <v>23526.95166234059</v>
+        <v>54066.64790632337</v>
       </c>
       <c r="E203">
-        <v>3587.340590943293</v>
+        <v>2273.98417760665</v>
       </c>
       <c r="F203">
-        <v>394.9748518591964</v>
+        <v>434.6955318609085</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>534.4</v>
+        <v>583.2</v>
       </c>
       <c r="B204">
-        <v>60557.38677570979</v>
+        <v>43730.96450658592</v>
       </c>
       <c r="C204">
-        <v>6128.418537449015</v>
+        <v>6247.76084104395</v>
       </c>
       <c r="D204">
-        <v>23365.04394357296</v>
+        <v>47632.15058219476</v>
       </c>
       <c r="E204">
-        <v>2791.220016432024</v>
+        <v>674.1240599127193</v>
       </c>
       <c r="F204">
-        <v>215.1886150250203</v>
+        <v>576.3388335618474</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>536.7</v>
+        <v>585.5</v>
       </c>
       <c r="B205">
-        <v>60576.04631207658</v>
+        <v>54321.00417969046</v>
       </c>
       <c r="C205">
-        <v>8652.766838175292</v>
+        <v>7383.722053595618</v>
       </c>
       <c r="D205">
-        <v>19489.86769213408</v>
+        <v>55222.44883424212</v>
       </c>
       <c r="E205">
-        <v>1698.457597624768</v>
+        <v>2478.815755050884</v>
       </c>
       <c r="F205">
-        <v>305.412094698383</v>
+        <v>268.0568307946491</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>539.3</v>
+        <v>587.7</v>
       </c>
       <c r="B206">
-        <v>58724.09622275212</v>
+        <v>54376.69430179049</v>
       </c>
       <c r="C206">
-        <v>10446.37796073544</v>
+        <v>5727.250169949333</v>
       </c>
       <c r="D206">
-        <v>19344.88584268144</v>
+        <v>54257.95151011349</v>
       </c>
       <c r="E206">
-        <v>3015.769645929625</v>
+        <v>1898.955637356954</v>
       </c>
       <c r="F206">
-        <v>355.6647238943581</v>
+        <v>489.700132495589</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>541.6</v>
+        <v>590</v>
       </c>
       <c r="B207">
-        <v>50152.75575911891</v>
+        <v>46746.73397489502</v>
       </c>
       <c r="C207">
-        <v>7950.726261461714</v>
+        <v>5953.211382500944</v>
       </c>
       <c r="D207">
-        <v>16169.70959124252</v>
+        <v>55228.24976216085</v>
       </c>
       <c r="E207">
-        <v>1773.007227122376</v>
+        <v>1373.647332495118</v>
       </c>
       <c r="F207">
-        <v>335.8882035677198</v>
+        <v>411.4181297283898</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>543.8</v>
+        <v>592.5</v>
       </c>
       <c r="B208">
-        <v>53104.95183738286</v>
+        <v>43605.4727500087</v>
       </c>
       <c r="C208">
-        <v>7585.320288243387</v>
+        <v>234.0387874483604</v>
       </c>
       <c r="D208">
-        <v>15117.80187247489</v>
+        <v>54788.13916656014</v>
       </c>
       <c r="E208">
-        <v>2366.886652611101</v>
+        <v>1727.44265329748</v>
       </c>
       <c r="F208">
-        <v>306.1019667335446</v>
+        <v>523.2855180249123</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>546.1</v>
+        <v>594.8</v>
       </c>
       <c r="B209">
-        <v>53503.61137374965</v>
+        <v>48285.51242311324</v>
       </c>
       <c r="C209">
-        <v>7139.668588969635</v>
+        <v>0</v>
       </c>
       <c r="D209">
-        <v>17032.62562103601</v>
+        <v>54288.43741860747</v>
       </c>
       <c r="E209">
-        <v>3124.124233803852</v>
+        <v>1412.134348435646</v>
       </c>
       <c r="F209">
-        <v>436.3254464069073</v>
+        <v>325.003515257714</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>548.4</v>
+        <v>597.1</v>
       </c>
       <c r="B210">
-        <v>44342.27091011655</v>
+        <v>43015.55209621791</v>
       </c>
       <c r="C210">
-        <v>6274.016889695919</v>
+        <v>5065.961212551603</v>
       </c>
       <c r="D210">
-        <v>13787.44936959713</v>
+        <v>54558.7356706548</v>
       </c>
       <c r="E210">
-        <v>1271.361814996605</v>
+        <v>2196.826043573809</v>
       </c>
       <c r="F210">
-        <v>256.5489260802701</v>
+        <v>306.7215124905147</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>550.6</v>
+        <v>599.3</v>
       </c>
       <c r="B211">
-        <v>27244.46698838037</v>
+        <v>33441.24221831792</v>
       </c>
       <c r="C211">
-        <v>10628.61091647756</v>
+        <v>7719.489328905325</v>
       </c>
       <c r="D211">
-        <v>14555.54165082949</v>
+        <v>57704.23834652621</v>
       </c>
       <c r="E211">
-        <v>1995.241240485319</v>
+        <v>1446.965925879887</v>
       </c>
       <c r="F211">
-        <v>6.762689246094851</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>553.2</v>
-      </c>
-      <c r="B212">
-        <v>39672.51689905593</v>
-      </c>
-      <c r="C212">
-        <v>6102.222039037726</v>
-      </c>
-      <c r="D212">
-        <v>12510.55980137681</v>
-      </c>
-      <c r="E212">
-        <v>1072.553288790175</v>
-      </c>
-      <c r="F212">
-        <v>417.0153184420697</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>555.5</v>
-      </c>
-      <c r="B213">
-        <v>44611.17643542283</v>
-      </c>
-      <c r="C213">
-        <v>9886.570339763981</v>
-      </c>
-      <c r="D213">
-        <v>14325.38354993793</v>
-      </c>
-      <c r="E213">
-        <v>3469.790869982928</v>
-      </c>
-      <c r="F213">
-        <v>377.2387981154316</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>557.7</v>
-      </c>
-      <c r="B214">
-        <v>33733.37251368666</v>
-      </c>
-      <c r="C214">
-        <v>6311.164366545647</v>
-      </c>
-      <c r="D214">
-        <v>10963.4758311703</v>
-      </c>
-      <c r="E214">
-        <v>2733.670295471643</v>
-      </c>
-      <c r="F214">
-        <v>557.4525612812563</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>560</v>
-      </c>
-      <c r="B215">
-        <v>39042.03205005356</v>
-      </c>
-      <c r="C215">
-        <v>8015.512667271931</v>
-      </c>
-      <c r="D215">
-        <v>10508.29957973142</v>
-      </c>
-      <c r="E215">
-        <v>2640.907876664403</v>
-      </c>
-      <c r="F215">
-        <v>547.6760409546191</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>562.2</v>
-      </c>
-      <c r="B216">
-        <v>36354.22812831739</v>
-      </c>
-      <c r="C216">
-        <v>3900.106694053567</v>
-      </c>
-      <c r="D216">
-        <v>10386.39186096378</v>
-      </c>
-      <c r="E216">
-        <v>1354.787302153126</v>
-      </c>
-      <c r="F216">
-        <v>317.8898041204437</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>564.8</v>
-      </c>
-      <c r="B217">
-        <v>41462.27803899294</v>
-      </c>
-      <c r="C217">
-        <v>8933.717816613742</v>
-      </c>
-      <c r="D217">
-        <v>8001.410011511143</v>
-      </c>
-      <c r="E217">
-        <v>2352.099350457983</v>
-      </c>
-      <c r="F217">
-        <v>168.1424333164187</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>567.1</v>
-      </c>
-      <c r="B218">
-        <v>25790.93757535984</v>
-      </c>
-      <c r="C218">
-        <v>2298.066117339989</v>
-      </c>
-      <c r="D218">
-        <v>8466.233760072224</v>
-      </c>
-      <c r="E218">
-        <v>1029.336931650727</v>
-      </c>
-      <c r="F218">
-        <v>508.3659129897806</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>569</v>
-      </c>
-      <c r="B219">
-        <v>38563.74327931502</v>
-      </c>
-      <c r="C219">
-        <v>7603.397322287801</v>
-      </c>
-      <c r="D219">
-        <v>9394.131639318388</v>
-      </c>
-      <c r="E219">
-        <v>1043.141890027355</v>
-      </c>
-      <c r="F219">
-        <v>468.5505266329932</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>571.6</v>
-      </c>
-      <c r="B220">
-        <v>43801.79318999057</v>
-      </c>
-      <c r="C220">
-        <v>7077.008444847943</v>
-      </c>
-      <c r="D220">
-        <v>9349.149789865711</v>
-      </c>
-      <c r="E220">
-        <v>2970.453938332203</v>
-      </c>
-      <c r="F220">
-        <v>638.803155828968</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>573.9</v>
-      </c>
-      <c r="B221">
-        <v>36110.45272635735</v>
-      </c>
-      <c r="C221">
-        <v>7641.356745574223</v>
-      </c>
-      <c r="D221">
-        <v>8443.973538426828</v>
-      </c>
-      <c r="E221">
-        <v>1907.691519524955</v>
-      </c>
-      <c r="F221">
-        <v>169.0266355023299</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>576.1</v>
-      </c>
-      <c r="B222">
-        <v>38452.64880462131</v>
-      </c>
-      <c r="C222">
-        <v>7305.950772355893</v>
-      </c>
-      <c r="D222">
-        <v>6892.06581965919</v>
-      </c>
-      <c r="E222">
-        <v>1921.570945013676</v>
-      </c>
-      <c r="F222">
-        <v>469.2403986681546</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>578.4</v>
-      </c>
-      <c r="B223">
-        <v>33981.30834098809</v>
-      </c>
-      <c r="C223">
-        <v>6100.299073082144</v>
-      </c>
-      <c r="D223">
-        <v>6816.889568220315</v>
-      </c>
-      <c r="E223">
-        <v>1998.808526206438</v>
-      </c>
-      <c r="F223">
-        <v>549.4638783415174</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>581</v>
-      </c>
-      <c r="B224">
-        <v>34629.35825166364</v>
-      </c>
-      <c r="C224">
-        <v>7913.910195642315</v>
-      </c>
-      <c r="D224">
-        <v>6831.907718767638</v>
-      </c>
-      <c r="E224">
-        <v>1626.120574511278</v>
-      </c>
-      <c r="F224">
-        <v>369.7165075374922</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>583.2</v>
-      </c>
-      <c r="B225">
-        <v>27061.55432992759</v>
-      </c>
-      <c r="C225">
-        <v>6558.504222423951</v>
-      </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <v>509.930270703317</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>585.5</v>
-      </c>
-      <c r="B226">
-        <v>37470.21386629438</v>
-      </c>
-      <c r="C226">
-        <v>7632.852523150235</v>
-      </c>
-      <c r="D226">
-        <v>7174.823748561117</v>
-      </c>
-      <c r="E226">
-        <v>1777.237581192761</v>
-      </c>
-      <c r="F226">
-        <v>200.1537503766798</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>587.7</v>
-      </c>
-      <c r="B227">
-        <v>37352.40994455832</v>
-      </c>
-      <c r="C227">
-        <v>5917.446549931901</v>
-      </c>
-      <c r="D227">
-        <v>5812.91602979348</v>
-      </c>
-      <c r="E227">
-        <v>1171.117006681476</v>
-      </c>
-      <c r="F227">
-        <v>420.3675135425045</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>590</v>
-      </c>
-      <c r="B228">
-        <v>29541.0694809251</v>
-      </c>
-      <c r="C228">
-        <v>6081.794850658156</v>
-      </c>
-      <c r="D228">
-        <v>6367.739778354604</v>
-      </c>
-      <c r="E228">
-        <v>618.3545878742279</v>
-      </c>
-      <c r="F228">
-        <v>340.5909932158663</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>592.5</v>
-      </c>
-      <c r="B229">
-        <v>26202.65593349781</v>
-      </c>
-      <c r="C229">
-        <v>295.651699273687</v>
-      </c>
-      <c r="D229">
-        <v>5476.026461573201</v>
-      </c>
-      <c r="E229">
-        <v>942.308480475047</v>
-      </c>
-      <c r="F229">
-        <v>450.8339059043042</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>594.8</v>
-      </c>
-      <c r="B230">
-        <v>30701.3154698646</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>4560.850210134297</v>
-      </c>
-      <c r="E230">
-        <v>599.5460616678083</v>
-      </c>
-      <c r="F230">
-        <v>251.0573855776661</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>597.1</v>
-      </c>
-      <c r="B231">
-        <v>25249.97500623138</v>
-      </c>
-      <c r="C231">
-        <v>5004.348300726248</v>
-      </c>
-      <c r="D231">
-        <v>4415.673958695414</v>
-      </c>
-      <c r="E231">
-        <v>1356.783642860551</v>
-      </c>
-      <c r="F231">
-        <v>231.2808652510288</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>599.3</v>
-      </c>
-      <c r="B232">
-        <v>15502.17108449533</v>
-      </c>
-      <c r="C232">
-        <v>7598.942327507921</v>
-      </c>
-      <c r="D232">
-        <v>7163.766239927783</v>
-      </c>
-      <c r="E232">
-        <v>580.6630683492767</v>
-      </c>
-      <c r="F232">
-        <v>451.4946284168535</v>
+        <v>528.3648141914539</v>
       </c>
     </row>
   </sheetData>
